--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$372</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$373</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="999">
   <si>
     <t>Address</t>
   </si>
@@ -3012,6 +3012,18 @@
   </si>
   <si>
     <t>2020 WHEAT DR</t>
+  </si>
+  <si>
+    <t>A000370</t>
+  </si>
+  <si>
+    <t>1600 E WENDOVER AVE STE I</t>
+  </si>
+  <si>
+    <t>GREENSBORO </t>
+  </si>
+  <si>
+    <t>NC </t>
   </si>
 </sst>
 </file>
@@ -3336,10 +3348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="D327" sqref="D327"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,6367 +3444,6383 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>995</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>996</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>997</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>998</v>
       </c>
       <c r="E5" s="2">
-        <v>92373</v>
+        <v>27405</v>
       </c>
       <c r="F5" s="1">
-        <v>6314</v>
+        <v>6854</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
-        <v>30809</v>
+        <v>92373</v>
       </c>
       <c r="F6" s="1">
-        <v>3087</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
-        <v>68154</v>
+        <v>30809</v>
       </c>
       <c r="F7" s="1">
-        <v>1500</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
-        <v>71201</v>
+        <v>68154</v>
       </c>
       <c r="F8" s="1">
-        <v>5751</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2">
-        <v>75119</v>
+        <v>71201</v>
       </c>
       <c r="F9" s="1">
-        <v>3624</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2">
-        <v>31901</v>
+        <v>75119</v>
       </c>
       <c r="F10" s="1">
-        <v>2778</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
-        <v>45069</v>
+        <v>31901</v>
       </c>
       <c r="F11" s="1">
-        <v>6637</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2">
-        <v>77340</v>
+        <v>45069</v>
       </c>
       <c r="F12" s="1">
-        <v>4638</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
-        <v>19148</v>
+        <v>77340</v>
       </c>
       <c r="F13" s="1">
-        <v>2216</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2">
-        <v>96910</v>
+        <v>19148</v>
       </c>
       <c r="F14" s="1">
-        <v>5058</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2">
-        <v>75065</v>
+        <v>96910</v>
       </c>
       <c r="F15" s="1">
-        <v>3637</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2">
-        <v>27893</v>
+        <v>75065</v>
       </c>
       <c r="F16" s="1">
-        <v>3802</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2">
-        <v>70629</v>
+        <v>27893</v>
       </c>
       <c r="F17" s="1">
-        <v>114</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2">
-        <v>34684</v>
+        <v>70629</v>
       </c>
       <c r="F18" s="1">
-        <v>1934</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="2">
-        <v>34236</v>
+        <v>34684</v>
       </c>
       <c r="F19" s="1">
-        <v>8522</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2">
-        <v>90010</v>
+        <v>34236</v>
       </c>
       <c r="F20" s="1">
-        <v>3794</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2">
-        <v>49684</v>
+        <v>90010</v>
       </c>
       <c r="F21" s="1">
-        <v>2500</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>38555</v>
+        <v>49684</v>
       </c>
       <c r="F22" s="1">
-        <v>4564</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>35805</v>
+        <v>38555</v>
       </c>
       <c r="F23" s="1">
-        <v>3109</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2">
-        <v>47807</v>
+        <v>35805</v>
       </c>
       <c r="F24" s="1">
-        <v>3232</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="E25" s="2">
-        <v>97005</v>
+        <v>47807</v>
       </c>
       <c r="F25" s="1">
-        <v>1678</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2">
-        <v>40513</v>
+        <v>97005</v>
       </c>
       <c r="F26" s="1">
-        <v>1866</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E27" s="2">
-        <v>46952</v>
+        <v>40513</v>
       </c>
       <c r="F27" s="1">
-        <v>3803</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2">
-        <v>93041</v>
+        <v>46952</v>
       </c>
       <c r="F28" s="1">
-        <v>2045</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E29" s="2">
-        <v>36602</v>
+        <v>93041</v>
       </c>
       <c r="F29" s="1">
-        <v>5000</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2">
-        <v>23060</v>
+        <v>36602</v>
       </c>
       <c r="F30" s="1">
-        <v>6149</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2">
-        <v>77630</v>
+        <v>23060</v>
       </c>
       <c r="F31" s="1">
-        <v>5803</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2">
-        <v>22314</v>
+        <v>77630</v>
       </c>
       <c r="F32" s="1">
-        <v>2647</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2">
-        <v>48915</v>
+        <v>22314</v>
       </c>
       <c r="F33" s="1">
-        <v>2552</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2">
-        <v>50703</v>
+        <v>48915</v>
       </c>
       <c r="F34" s="1">
-        <v>4051</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E35" s="2">
-        <v>62896</v>
+        <v>50703</v>
       </c>
       <c r="F35" s="1">
-        <v>2437</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="E36" s="2">
-        <v>19046</v>
+        <v>62896</v>
       </c>
       <c r="F36" s="1">
-        <v>2710</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2">
-        <v>80751</v>
+        <v>19046</v>
       </c>
       <c r="F37" s="1">
-        <v>4220</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E38" s="2">
-        <v>29556</v>
+        <v>80751</v>
       </c>
       <c r="F38" s="1">
-        <v>3344</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="E39" s="2">
-        <v>37219</v>
+        <v>29556</v>
       </c>
       <c r="F39" s="1">
-        <v>2314</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2">
-        <v>21043</v>
+        <v>37219</v>
       </c>
       <c r="F40" s="1">
-        <v>9903</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="E41" s="2">
-        <v>93463</v>
+        <v>21043</v>
       </c>
       <c r="F41" s="1">
-        <v>3701</v>
+        <v>9903</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="E42" s="2">
-        <v>2120</v>
+        <v>93463</v>
       </c>
       <c r="F42" s="1">
-        <v>3400</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E43" s="2">
-        <v>11372</v>
+        <v>2120</v>
       </c>
       <c r="F43" s="1">
-        <v>6303</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="E44" s="2">
-        <v>63136</v>
+        <v>11372</v>
       </c>
       <c r="F44" s="1">
-        <v>1449</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2">
-        <v>76502</v>
+        <v>63136</v>
       </c>
       <c r="F45" s="1">
-        <v>5811</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2">
-        <v>73069</v>
+        <v>76502</v>
       </c>
       <c r="F46" s="1">
-        <v>3965</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="E47" s="2">
-        <v>95340</v>
+        <v>73069</v>
       </c>
       <c r="F47" s="1">
-        <v>3729</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="E48" s="2">
-        <v>11226</v>
+        <v>95340</v>
       </c>
       <c r="F48" s="1">
-        <v>3888</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E49" s="2">
-        <v>38103</v>
+        <v>11226</v>
       </c>
       <c r="F49" s="1">
-        <v>1822</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2">
-        <v>46205</v>
+        <v>38103</v>
       </c>
       <c r="F50" s="1">
-        <v>4258</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2">
-        <v>84601</v>
+        <v>46205</v>
       </c>
       <c r="F51" s="1">
-        <v>4491</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2">
-        <v>80014</v>
+        <v>84601</v>
       </c>
       <c r="F52" s="1">
-        <v>3518</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2">
-        <v>2860</v>
+        <v>80014</v>
       </c>
       <c r="F53" s="1">
-        <v>4974</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="E54" s="2">
-        <v>72401</v>
+        <v>2860</v>
       </c>
       <c r="F54" s="1">
-        <v>6229</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E55" s="2">
-        <v>78249</v>
+        <v>72401</v>
       </c>
       <c r="F55" s="1">
-        <v>2104</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="E56" s="2">
-        <v>14221</v>
+        <v>78249</v>
       </c>
       <c r="F56" s="1">
-        <v>7384</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="E57" s="2">
-        <v>30577</v>
+        <v>14221</v>
       </c>
       <c r="F57" s="1">
-        <v>1899</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E58" s="2">
-        <v>92307</v>
+        <v>30577</v>
       </c>
       <c r="F58" s="1">
-        <v>3061</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="E59" s="2">
-        <v>58103</v>
+        <v>92307</v>
       </c>
       <c r="F59" s="1">
-        <v>6163</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="E60" s="2">
-        <v>91411</v>
+        <v>58103</v>
       </c>
       <c r="F60" s="1">
-        <v>4102</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E61" s="2">
-        <v>33990</v>
+        <v>91411</v>
       </c>
       <c r="F61" s="1">
-        <v>2811</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E62" s="2">
-        <v>31406</v>
+        <v>33990</v>
       </c>
       <c r="F62" s="1">
-        <v>7434</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="E63" s="2">
-        <v>22601</v>
+        <v>31406</v>
       </c>
       <c r="F63" s="1">
-        <v>4730</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2">
-        <v>19610</v>
+        <v>22601</v>
       </c>
       <c r="F64" s="1">
-        <v>1307</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E65" s="2">
-        <v>33175</v>
+        <v>19610</v>
       </c>
       <c r="F65" s="1">
-        <v>3436</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E66" s="2">
-        <v>97470</v>
+        <v>33175</v>
       </c>
       <c r="F66" s="1">
-        <v>511</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C67" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="E67" s="2">
-        <v>80203</v>
+        <v>97470</v>
       </c>
       <c r="F67" s="1">
-        <v>3525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2">
-        <v>15235</v>
+        <v>80203</v>
       </c>
       <c r="F68" s="1">
-        <v>3263</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E69" s="2">
-        <v>37804</v>
+        <v>15235</v>
       </c>
       <c r="F69" s="1">
-        <v>5782</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="E70" s="2">
-        <v>47807</v>
+        <v>37804</v>
       </c>
       <c r="F70" s="1">
-        <v>3232</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B71" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2">
-        <v>95355</v>
+        <v>47807</v>
       </c>
       <c r="F71" s="1">
-        <v>1356</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E72" s="2">
-        <v>54403</v>
+        <v>95355</v>
       </c>
       <c r="F72" s="1">
-        <v>6217</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="E73" s="2">
-        <v>29625</v>
+        <v>54403</v>
       </c>
       <c r="F73" s="1">
-        <v>1505</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="E74" s="2">
-        <v>37130</v>
+        <v>29625</v>
       </c>
       <c r="F74" s="1">
-        <v>3547</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="E75" s="2">
-        <v>98273</v>
+        <v>37130</v>
       </c>
       <c r="F75" s="1">
-        <v>3843</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="E76" s="2">
-        <v>62701</v>
+        <v>98273</v>
       </c>
       <c r="F76" s="1">
-        <v>1502</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C77" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2">
-        <v>21742</v>
+        <v>62701</v>
       </c>
       <c r="F77" s="1">
-        <v>6646</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="E78" s="2">
-        <v>32084</v>
+        <v>21742</v>
       </c>
       <c r="F78" s="1">
-        <v>8600</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E79" s="2">
-        <v>94596</v>
+        <v>32084</v>
       </c>
       <c r="F79" s="1">
-        <v>3877</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C80" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E80" s="2">
-        <v>48197</v>
+        <v>94596</v>
       </c>
       <c r="F80" s="1">
-        <v>5450</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="D81" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="E81" s="2">
-        <v>10550</v>
+        <v>48197</v>
       </c>
       <c r="F81" s="1">
-        <v>3208</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>159</v>
       </c>
       <c r="D82" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="E82" s="2">
-        <v>55411</v>
+        <v>10550</v>
       </c>
       <c r="F82" s="1">
-        <v>3675</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C83" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="E83" s="2">
-        <v>27203</v>
+        <v>55411</v>
       </c>
       <c r="F83" s="1">
-        <v>5658</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C84" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D84" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="E84" s="2">
-        <v>6051</v>
+        <v>27203</v>
       </c>
       <c r="F84" s="1">
-        <v>4223</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D85" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2">
-        <v>56387</v>
+        <v>6051</v>
       </c>
       <c r="F85" s="1">
-        <v>1313</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D86" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E86" s="2">
-        <v>85308</v>
+        <v>56387</v>
       </c>
       <c r="F86" s="1">
-        <v>8549</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C87" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="E87" s="2">
-        <v>68701</v>
+        <v>85308</v>
       </c>
       <c r="F87" s="1">
-        <v>5200</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B88" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C88" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D88" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E88" s="2">
-        <v>19047</v>
+        <v>68701</v>
       </c>
       <c r="F88" s="1">
-        <v>1086</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B89" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C89" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="E89" s="2">
-        <v>60435</v>
+        <v>19047</v>
       </c>
       <c r="F89" s="1">
-        <v>8412</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B90" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C90" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D90" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2">
-        <v>44128</v>
+        <v>60435</v>
       </c>
       <c r="F90" s="1">
-        <v>6408</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C91" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E91" s="2">
-        <v>38133</v>
+        <v>44128</v>
       </c>
       <c r="F91" s="1">
-        <v>4036</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B92" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
-        <v>335</v>
+        <v>209</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="2">
-        <v>37303</v>
+        <v>38133</v>
       </c>
       <c r="F92" s="1">
-        <v>8823</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B93" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C93" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2">
-        <v>77904</v>
+        <v>37303</v>
       </c>
       <c r="F93" s="1">
-        <v>2194</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C94" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E94" s="2">
-        <v>33405</v>
+        <v>77904</v>
       </c>
       <c r="F94" s="1">
-        <v>1553</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B95" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C95" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E95" s="2">
-        <v>76107</v>
+        <v>33405</v>
       </c>
       <c r="F95" s="1">
-        <v>6529</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B96" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>344</v>
       </c>
       <c r="D96" t="s">
         <v>40</v>
       </c>
       <c r="E96" s="2">
-        <v>77060</v>
+        <v>76107</v>
       </c>
       <c r="F96" s="1">
-        <v>2028</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B97" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C97" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="D97" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="E97" s="2">
-        <v>60647</v>
+        <v>77060</v>
       </c>
       <c r="F97" s="1">
-        <v>2512</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C98" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="D98" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2">
-        <v>64501</v>
+        <v>60647</v>
       </c>
       <c r="F98" s="1">
-        <v>2275</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B99" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C99" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E99" s="2">
-        <v>75701</v>
+        <v>64501</v>
       </c>
       <c r="F99" s="1">
-        <v>9660</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B100" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="D100" t="s">
         <v>40</v>
       </c>
       <c r="E100" s="2">
-        <v>77054</v>
+        <v>75701</v>
       </c>
       <c r="F100" s="1">
-        <v>1382</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B101" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C101" t="s">
-        <v>361</v>
+        <v>192</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="E101" s="2">
-        <v>40160</v>
+        <v>77054</v>
       </c>
       <c r="F101" s="1">
-        <v>2046</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B102" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C102" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2">
-        <v>95695</v>
+        <v>40160</v>
       </c>
       <c r="F102" s="1">
-        <v>3478</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B103" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C103" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E103" s="2">
-        <v>30161</v>
+        <v>95695</v>
       </c>
       <c r="F103" s="1">
-        <v>3149</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B104" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C104" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D104" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E104" s="2">
-        <v>44702</v>
+        <v>30161</v>
       </c>
       <c r="F104" s="1">
-        <v>1409</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B105" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C105" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="E105" s="2">
-        <v>12106</v>
+        <v>44702</v>
       </c>
       <c r="F105" s="1">
-        <v>2003</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B106" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D106" t="s">
-        <v>316</v>
+        <v>187</v>
       </c>
       <c r="E106" s="2">
-        <v>86303</v>
+        <v>12106</v>
       </c>
       <c r="F106" s="1">
-        <v>4712</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B107" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C107" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="E107" s="2">
-        <v>10306</v>
+        <v>86303</v>
       </c>
       <c r="F107" s="1">
-        <v>3005</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B108" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C108" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="E108" s="2">
-        <v>3801</v>
+        <v>10306</v>
       </c>
       <c r="F108" s="1">
-        <v>4669</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B109" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C109" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D109" t="s">
-        <v>316</v>
+        <v>17</v>
       </c>
       <c r="E109" s="2">
-        <v>85004</v>
+        <v>3801</v>
       </c>
       <c r="F109" s="1">
-        <v>2120</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B110" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C110" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D110" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="E110" s="2">
-        <v>32308</v>
+        <v>85004</v>
       </c>
       <c r="F110" s="1">
-        <v>7791</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B111" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D111" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E111" s="2">
-        <v>54904</v>
+        <v>32308</v>
       </c>
       <c r="F111" s="1">
-        <v>6438</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B112" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C112" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E112" s="2">
-        <v>70754</v>
+        <v>54904</v>
       </c>
       <c r="F112" s="1">
-        <v>426</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B113" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C113" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E113" s="2">
-        <v>78155</v>
+        <v>70754</v>
       </c>
       <c r="F113" s="1">
-        <v>5702</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C114" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D114" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="E114" s="2">
-        <v>20602</v>
+        <v>78155</v>
       </c>
       <c r="F114" s="1">
-        <v>2738</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C115" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="E115" s="2">
-        <v>94538</v>
+        <v>20602</v>
       </c>
       <c r="F115" s="1">
-        <v>2324</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B116" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C116" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D116" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E116" s="2">
-        <v>75231</v>
+        <v>94538</v>
       </c>
       <c r="F116" s="1">
-        <v>7278</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B117" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C117" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="E117" s="2">
-        <v>14210</v>
+        <v>75231</v>
       </c>
       <c r="F117" s="1">
-        <v>1485</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B118" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C118" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D118" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="E118" s="2">
-        <v>6901</v>
+        <v>14210</v>
       </c>
       <c r="F118" s="1">
-        <v>2902</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B119" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C119" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2">
-        <v>92065</v>
+        <v>6901</v>
       </c>
       <c r="F119" s="1">
-        <v>2420</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B120" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C120" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D120" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="E120" s="2">
-        <v>13421</v>
+        <v>92065</v>
       </c>
       <c r="F120" s="1">
-        <v>1641</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B121" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C121" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D121" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E121" s="2">
-        <v>21801</v>
+        <v>13421</v>
       </c>
       <c r="F121" s="1">
-        <v>5026</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B122" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C122" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D122" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="E122" s="2">
-        <v>65301</v>
+        <v>21801</v>
       </c>
       <c r="F122" s="1">
-        <v>4435</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B123" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C123" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E123" s="2">
-        <v>89113</v>
+        <v>65301</v>
       </c>
       <c r="F123" s="1">
-        <v>2251</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B124" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C124" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E124" s="2">
-        <v>98661</v>
+        <v>89113</v>
       </c>
       <c r="F124" s="1">
-        <v>3853</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B125" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C125" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D125" t="s">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2">
-        <v>67402</v>
+        <v>98661</v>
       </c>
       <c r="F125" s="1">
-        <v>2600</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B126" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C126" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>440</v>
       </c>
       <c r="E126" s="2">
-        <v>49440</v>
+        <v>67402</v>
       </c>
       <c r="F126" s="1">
-        <v>1135</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B127" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C127" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D127" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="E127" s="2">
-        <v>60134</v>
+        <v>49440</v>
       </c>
       <c r="F127" s="1">
-        <v>4710</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B128" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C128" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2">
-        <v>90731</v>
+        <v>60134</v>
       </c>
       <c r="F128" s="1">
-        <v>3314</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B129" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C129" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D129" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="E129" s="2">
-        <v>98503</v>
+        <v>90731</v>
       </c>
       <c r="F129" s="1">
-        <v>1238</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B130" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C130" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="E130" s="2">
-        <v>27605</v>
+        <v>98503</v>
       </c>
       <c r="F130" s="1">
-        <v>1276</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B131" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C131" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D131" t="s">
         <v>61</v>
       </c>
       <c r="E131" s="2">
-        <v>28379</v>
+        <v>27605</v>
       </c>
       <c r="F131" s="1">
-        <v>3627</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B132" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C132" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E132" s="2">
-        <v>94903</v>
+        <v>28379</v>
       </c>
       <c r="F132" s="1">
-        <v>2580</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B133" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C133" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D133" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E133" s="2">
-        <v>79735</v>
+        <v>94903</v>
       </c>
       <c r="F133" s="1">
-        <v>7104</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B134" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C134" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E134" s="2">
-        <v>89030</v>
+        <v>79735</v>
       </c>
       <c r="F134" s="1">
-        <v>5877</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B135" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C135" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E135" s="2">
-        <v>31082</v>
+        <v>89030</v>
       </c>
       <c r="F135" s="1">
-        <v>1017</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B136" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C136" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E136" s="2">
-        <v>72207</v>
+        <v>31082</v>
       </c>
       <c r="F136" s="1">
-        <v>5242</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B137" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C137" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D137" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="E137" s="2">
-        <v>11747</v>
+        <v>72207</v>
       </c>
       <c r="F137" s="1">
-        <v>3673</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B138" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C138" t="s">
-        <v>192</v>
+        <v>476</v>
       </c>
       <c r="D138" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="E138" s="2">
-        <v>77091</v>
+        <v>11747</v>
       </c>
       <c r="F138" s="1">
-        <v>3105</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B139" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C139" t="s">
-        <v>409</v>
+        <v>192</v>
       </c>
       <c r="D139" t="s">
         <v>40</v>
       </c>
       <c r="E139" s="2">
-        <v>75201</v>
+        <v>77091</v>
       </c>
       <c r="F139" s="1">
-        <v>1236</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B140" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C140" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="D140" t="s">
         <v>40</v>
       </c>
       <c r="E140" s="2">
-        <v>75080</v>
+        <v>75201</v>
       </c>
       <c r="F140" s="1">
-        <v>2000</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B141" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>483</v>
       </c>
       <c r="D141" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E141" s="2">
-        <v>28401</v>
+        <v>75080</v>
       </c>
       <c r="F141" s="1">
-        <v>5093</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B142" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C142" t="s">
-        <v>488</v>
+        <v>164</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E142" s="2">
-        <v>30084</v>
+        <v>28401</v>
       </c>
       <c r="F142" s="1">
-        <v>5866</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B143" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C143" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D143" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E143" s="2">
-        <v>44857</v>
+        <v>30084</v>
       </c>
       <c r="F143" s="1">
-        <v>1512</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B144" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C144" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D144" t="s">
         <v>53</v>
       </c>
       <c r="E144" s="2">
-        <v>45750</v>
+        <v>44857</v>
       </c>
       <c r="F144" s="1">
-        <v>2908</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B145" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>494</v>
       </c>
       <c r="D145" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="E145" s="2">
-        <v>11236</v>
+        <v>45750</v>
       </c>
       <c r="F145" s="1">
-        <v>2806</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B146" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C146" t="s">
-        <v>499</v>
+        <v>206</v>
       </c>
       <c r="D146" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E146" s="2">
-        <v>44087</v>
+        <v>11236</v>
       </c>
       <c r="F146" s="1">
-        <v>1718</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B147" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C147" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D147" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E147" s="2">
-        <v>33772</v>
+        <v>44087</v>
       </c>
       <c r="F147" s="1">
-        <v>2800</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B148" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C148" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D148" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="E148" s="2">
-        <v>25601</v>
+        <v>33772</v>
       </c>
       <c r="F148" s="1">
-        <v>3626</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B149" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C149" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D149" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="E149" s="2">
-        <v>54601</v>
+        <v>25601</v>
       </c>
       <c r="F149" s="1">
-        <v>4059</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B150" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C150" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D150" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="E150" s="2">
-        <v>50588</v>
+        <v>54601</v>
       </c>
       <c r="F150" s="1">
-        <v>3209</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B151" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C151" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D151" t="s">
-        <v>303</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2">
-        <v>55337</v>
+        <v>50588</v>
       </c>
       <c r="F151" s="1">
-        <v>2585</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B152" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C152" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D152" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E152" s="2">
-        <v>85122</v>
+        <v>55337</v>
       </c>
       <c r="F152" s="1">
-        <v>4414</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B153" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C153" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D153" t="s">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="E153" s="2">
-        <v>16507</v>
+        <v>85122</v>
       </c>
       <c r="F153" s="1">
-        <v>2405</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B154" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C154" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D154" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="E154" s="2">
-        <v>61108</v>
+        <v>16507</v>
       </c>
       <c r="F154" s="1">
-        <v>3011</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B155" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C155" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D155" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="E155" s="2">
-        <v>2458</v>
+        <v>61108</v>
       </c>
       <c r="F155" s="1">
-        <v>1275</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B156" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C156" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E156" s="2">
-        <v>48502</v>
+        <v>2458</v>
       </c>
       <c r="F156" s="1">
-        <v>1500</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B157" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C157" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="E157" s="2">
-        <v>98402</v>
+        <v>48502</v>
       </c>
       <c r="F157" s="1">
-        <v>4486</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>532</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="E158" s="2">
-        <v>3301</v>
+        <v>98402</v>
       </c>
       <c r="F158" s="1">
-        <v>2424</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B159" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="E159" s="2">
-        <v>60430</v>
+        <v>3301</v>
       </c>
       <c r="F159" s="1">
-        <v>2029</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B160" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C160" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D160" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="E160" s="2">
-        <v>13261</v>
+        <v>60430</v>
       </c>
       <c r="F160" s="1">
-        <v>6100</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B161" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C161" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D161" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="E161" s="2">
-        <v>91381</v>
+        <v>13261</v>
       </c>
       <c r="F161" s="1">
-        <v>750</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B162" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C162" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E162" s="2">
-        <v>48066</v>
+        <v>91381</v>
       </c>
       <c r="F162" s="1">
-        <v>2947</v>
+        <v>750</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B163" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C163" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D163" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E163" s="2">
-        <v>30303</v>
+        <v>48066</v>
       </c>
       <c r="F163" s="1">
-        <v>1906</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B164" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C164" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D164" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E164" s="2">
-        <v>95112</v>
+        <v>30303</v>
       </c>
       <c r="F164" s="1">
-        <v>5110</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B165" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C165" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D165" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="E165" s="2">
-        <v>10605</v>
+        <v>95112</v>
       </c>
       <c r="F165" s="1">
-        <v>1316</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B166" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C166" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D166" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="E166" s="2">
-        <v>73099</v>
+        <v>10605</v>
       </c>
       <c r="F166" s="1">
-        <v>8214</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B167" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C167" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D167" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="E167" s="2">
-        <v>94612</v>
+        <v>73099</v>
       </c>
       <c r="F167" s="1">
-        <v>5233</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B168" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C168" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D168" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="E168" s="2">
-        <v>8330</v>
+        <v>94612</v>
       </c>
       <c r="F168" s="1">
-        <v>1746</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B169" t="s">
-        <v>96</v>
+        <v>564</v>
       </c>
       <c r="C169" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D169" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="E169" s="2">
-        <v>2886</v>
+        <v>8330</v>
       </c>
       <c r="F169" s="1">
-        <v>200</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B170" t="s">
-        <v>569</v>
+        <v>96</v>
       </c>
       <c r="C170" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D170" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="E170" s="2">
-        <v>98201</v>
+        <v>2886</v>
       </c>
       <c r="F170" s="1">
-        <v>4070</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B171" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C171" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D171" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E171" s="2">
-        <v>2169</v>
+        <v>98201</v>
       </c>
       <c r="F171" s="1">
-        <v>4331</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B172" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C172" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D172" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="E172" s="2">
-        <v>60453</v>
+        <v>2169</v>
       </c>
       <c r="F172" s="1">
-        <v>2444</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B173" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C173" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D173" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E173" s="2">
-        <v>80920</v>
+        <v>60453</v>
       </c>
       <c r="F173" s="1">
-        <v>3965</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B174" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C174" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D174" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E174" s="2">
-        <v>7090</v>
+        <v>80920</v>
       </c>
       <c r="F174" s="1">
-        <v>1537</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B175" t="s">
-        <v>414</v>
+        <v>581</v>
       </c>
       <c r="C175" t="s">
-        <v>415</v>
+        <v>582</v>
       </c>
       <c r="D175" t="s">
-        <v>416</v>
+        <v>128</v>
       </c>
       <c r="E175" s="2">
-        <v>87505</v>
+        <v>7090</v>
       </c>
       <c r="F175" s="1">
-        <v>7640</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B176" t="s">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="C176" t="s">
-        <v>91</v>
+        <v>415</v>
       </c>
       <c r="D176" t="s">
-        <v>92</v>
+        <v>416</v>
       </c>
       <c r="E176" s="2">
-        <v>82801</v>
+        <v>87505</v>
       </c>
       <c r="F176" s="1">
-        <v>6331</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B177" t="s">
-        <v>587</v>
+        <v>90</v>
       </c>
       <c r="C177" t="s">
-        <v>588</v>
+        <v>91</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E177" s="2">
-        <v>96002</v>
+        <v>82801</v>
       </c>
       <c r="F177" s="1">
-        <v>164</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B178" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C178" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D178" t="s">
         <v>24</v>
       </c>
       <c r="E178" s="2">
-        <v>90802</v>
+        <v>96002</v>
       </c>
       <c r="F178" s="1">
-        <v>4486</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B179" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C179" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E179" s="2">
-        <v>48226</v>
+        <v>90802</v>
       </c>
       <c r="F179" s="1">
-        <v>2944</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B180" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
+        <v>594</v>
       </c>
       <c r="D180" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E180" s="2">
-        <v>90048</v>
+        <v>48226</v>
       </c>
       <c r="F180" s="1">
-        <v>4183</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B181" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C181" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
       <c r="D181" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E181" s="2">
-        <v>30060</v>
+        <v>90048</v>
       </c>
       <c r="F181" s="1">
-        <v>2063</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B182" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C182" t="s">
-        <v>601</v>
+        <v>494</v>
       </c>
       <c r="D182" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>84115</v>
+        <v>30060</v>
       </c>
       <c r="F182" s="1">
-        <v>3296</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B183" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C183" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D183" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="E183" s="2">
-        <v>10128</v>
+        <v>84115</v>
       </c>
       <c r="F183" s="1">
-        <v>3679</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B184" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C184" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D184" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E184" s="2">
-        <v>1002</v>
+        <v>10128</v>
       </c>
       <c r="F184" s="1">
-        <v>6246</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B185" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C185" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D185" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="E185" s="2">
-        <v>32765</v>
+        <v>1002</v>
       </c>
       <c r="F185" s="1">
-        <v>4508</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B186" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C186" t="s">
-        <v>186</v>
+        <v>610</v>
       </c>
       <c r="D186" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="E186" s="2">
-        <v>11693</v>
+        <v>32765</v>
       </c>
       <c r="F186" s="1">
-        <v>1530</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B187" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C187" t="s">
-        <v>615</v>
+        <v>186</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="E187" s="2">
-        <v>48317</v>
+        <v>11693</v>
       </c>
       <c r="F187" s="1">
-        <v>2560</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B188" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C188" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D188" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E188" s="2">
-        <v>28151</v>
+        <v>48317</v>
       </c>
       <c r="F188" s="1">
-        <v>4611</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B189" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C189" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D189" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E189" s="2">
-        <v>77375</v>
+        <v>28151</v>
       </c>
       <c r="F189" s="1">
-        <v>4269</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B190" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C190" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D190" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="E190" s="2">
-        <v>99362</v>
+        <v>77375</v>
       </c>
       <c r="F190" s="1">
-        <v>1925</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B191" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C191" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="E191" s="2">
-        <v>95814</v>
+        <v>99362</v>
       </c>
       <c r="F191" s="1">
-        <v>4778</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B192" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C192" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D192" t="s">
         <v>24</v>
       </c>
       <c r="E192" s="2">
-        <v>93309</v>
+        <v>95814</v>
       </c>
       <c r="F192" s="1">
-        <v>409</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B193" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C193" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D193" t="s">
         <v>24</v>
       </c>
       <c r="E193" s="2">
-        <v>95207</v>
+        <v>93309</v>
       </c>
       <c r="F193" s="1">
-        <v>6671</v>
+        <v>409</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B194" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C194" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D194" t="s">
         <v>24</v>
       </c>
       <c r="E194" s="2">
-        <v>95746</v>
+        <v>95207</v>
       </c>
       <c r="F194" s="1">
-        <v>8501</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B195" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C195" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D195" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E195" s="2">
-        <v>17701</v>
+        <v>95746</v>
       </c>
       <c r="F195" s="1">
-        <v>5475</v>
+        <v>8501</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B196" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C196" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D196" t="s">
         <v>64</v>
       </c>
       <c r="E196" s="2">
-        <v>19518</v>
+        <v>17701</v>
       </c>
       <c r="F196" s="1">
-        <v>1023</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B197" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C197" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D197" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="E197" s="2">
-        <v>29732</v>
+        <v>19518</v>
       </c>
       <c r="F197" s="1">
-        <v>2339</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B198" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C198" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D198" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="E198" s="2">
-        <v>41097</v>
+        <v>29732</v>
       </c>
       <c r="F198" s="1">
-        <v>1026</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B199" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C199" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D199" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="E199" s="2">
-        <v>10940</v>
+        <v>41097</v>
       </c>
       <c r="F199" s="1">
-        <v>5787</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B200" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C200" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D200" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="E200" s="2">
-        <v>28779</v>
+        <v>10940</v>
       </c>
       <c r="F200" s="1">
-        <v>8552</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B201" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C201" t="s">
-        <v>186</v>
+        <v>654</v>
       </c>
       <c r="D201" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="E201" s="2">
-        <v>11415</v>
+        <v>28779</v>
       </c>
       <c r="F201" s="1">
-        <v>3605</v>
+        <v>8552</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B202" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C202" t="s">
-        <v>659</v>
+        <v>186</v>
       </c>
       <c r="D202" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="E202" s="2">
-        <v>47305</v>
+        <v>11415</v>
       </c>
       <c r="F202" s="1">
-        <v>2804</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B203" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C203" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D203" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E203" s="2">
-        <v>74401</v>
+        <v>47305</v>
       </c>
       <c r="F203" s="1">
-        <v>6614</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B204" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C204" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D204" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="E204" s="2">
-        <v>34994</v>
+        <v>74401</v>
       </c>
       <c r="F204" s="1">
-        <v>2139</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B205" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C205" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D205" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="E205" s="2">
-        <v>8010</v>
+        <v>34994</v>
       </c>
       <c r="F205" s="1">
-        <v>2220</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B206" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C206" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D206" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="E206" s="2">
-        <v>48640</v>
+        <v>8010</v>
       </c>
       <c r="F206" s="1">
-        <v>5103</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B207" t="s">
-        <v>189</v>
+        <v>670</v>
       </c>
       <c r="C207" t="s">
-        <v>190</v>
+        <v>671</v>
       </c>
       <c r="D207" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="E207" s="2">
-        <v>25401</v>
+        <v>48640</v>
       </c>
       <c r="F207" s="1">
-        <v>5341</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B208" t="s">
-        <v>674</v>
+        <v>189</v>
       </c>
       <c r="C208" t="s">
-        <v>675</v>
+        <v>190</v>
       </c>
       <c r="D208" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E208" s="2">
-        <v>1960</v>
+        <v>25401</v>
       </c>
       <c r="F208" s="1">
-        <v>5646</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B209" t="s">
-        <v>314</v>
+        <v>674</v>
       </c>
       <c r="C209" t="s">
-        <v>315</v>
+        <v>675</v>
       </c>
       <c r="D209" t="s">
-        <v>316</v>
+        <v>183</v>
       </c>
       <c r="E209" s="2">
-        <v>85712</v>
+        <v>1960</v>
       </c>
       <c r="F209" s="1">
-        <v>4051</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B210" t="s">
-        <v>678</v>
+        <v>314</v>
       </c>
       <c r="C210" t="s">
-        <v>679</v>
+        <v>315</v>
       </c>
       <c r="D210" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="E210" s="2">
-        <v>55056</v>
+        <v>85712</v>
       </c>
       <c r="F210" s="1">
-        <v>7068</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B211" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C211" t="s">
-        <v>584</v>
+        <v>679</v>
       </c>
       <c r="D211" t="s">
-        <v>682</v>
+        <v>303</v>
       </c>
       <c r="E211" s="2">
-        <v>20001</v>
+        <v>55056</v>
       </c>
       <c r="F211" s="1">
-        <v>4203</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B212" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C212" t="s">
-        <v>685</v>
+        <v>584</v>
       </c>
       <c r="D212" t="s">
-        <v>24</v>
+        <v>682</v>
       </c>
       <c r="E212" s="2">
-        <v>91773</v>
+        <v>20001</v>
       </c>
       <c r="F212" s="1">
-        <v>1254</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B213" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C213" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D213" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E213" s="2">
-        <v>79401</v>
+        <v>91773</v>
       </c>
       <c r="F213" s="1">
-        <v>2206</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B214" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C214" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D214" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E214" s="2">
-        <v>34471</v>
+        <v>79401</v>
       </c>
       <c r="F214" s="1">
-        <v>9179</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B215" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C215" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D215" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="E215" s="2">
-        <v>38804</v>
+        <v>34471</v>
       </c>
       <c r="F215" s="1">
-        <v>4025</v>
+        <v>9179</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B216" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C216" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D216" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="E216" s="2">
-        <v>8003</v>
+        <v>38804</v>
       </c>
       <c r="F216" s="1">
-        <v>3696</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B217" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C217" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D217" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E217" s="2">
-        <v>98901</v>
+        <v>8003</v>
       </c>
       <c r="F217" s="1">
-        <v>5410</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B218" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C218" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D218" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="E218" s="2">
-        <v>77478</v>
+        <v>98901</v>
       </c>
       <c r="F218" s="1">
-        <v>4921</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B219" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C219" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D219" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="E219" s="2">
-        <v>8901</v>
+        <v>77478</v>
       </c>
       <c r="F219" s="1">
-        <v>1242</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B220" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C220" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D220" t="s">
         <v>128</v>
       </c>
       <c r="E220" s="2">
-        <v>7505</v>
+        <v>8901</v>
       </c>
       <c r="F220" s="1">
-        <v>1953</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B221" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C221" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D221" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="E221" s="2">
-        <v>94103</v>
+        <v>7505</v>
       </c>
       <c r="F221" s="1">
-        <v>6701</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B222" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C222" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D222" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="E222" s="2">
-        <v>56201</v>
+        <v>94103</v>
       </c>
       <c r="F222" s="1">
-        <v>3300</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B223" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C223" t="s">
-        <v>455</v>
+        <v>716</v>
       </c>
       <c r="D223" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="E223" s="2">
-        <v>27607</v>
+        <v>56201</v>
       </c>
       <c r="F223" s="1">
-        <v>3815</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B224" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C224" t="s">
-        <v>721</v>
+        <v>455</v>
       </c>
       <c r="D224" t="s">
-        <v>416</v>
+        <v>61</v>
       </c>
       <c r="E224" s="2">
-        <v>88201</v>
+        <v>27607</v>
       </c>
       <c r="F224" s="1">
-        <v>2029</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B225" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C225" t="s">
-        <v>494</v>
+        <v>721</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>416</v>
       </c>
       <c r="E225" s="2">
-        <v>30062</v>
+        <v>88201</v>
       </c>
       <c r="F225" s="1">
-        <v>8818</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B226" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C226" t="s">
-        <v>726</v>
+        <v>494</v>
       </c>
       <c r="D226" t="s">
-        <v>727</v>
+        <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>927</v>
+        <v>30062</v>
       </c>
       <c r="F226" s="1">
-        <v>5144</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B227" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C227" t="s">
-        <v>46</v>
+        <v>726</v>
       </c>
       <c r="D227" t="s">
-        <v>177</v>
+        <v>727</v>
       </c>
       <c r="E227" s="2">
-        <v>4101</v>
+        <v>927</v>
       </c>
       <c r="F227" s="1">
-        <v>4633</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B228" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C228" t="s">
-        <v>732</v>
+        <v>46</v>
       </c>
       <c r="D228" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E228" s="2">
-        <v>39401</v>
+        <v>4101</v>
       </c>
       <c r="F228" s="1">
-        <v>3478</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B229" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C229" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D229" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="E229" s="2">
-        <v>7003</v>
+        <v>39401</v>
       </c>
       <c r="F229" s="1">
-        <v>3470</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B230" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C230" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D230" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="E230" s="2">
-        <v>28211</v>
+        <v>7003</v>
       </c>
       <c r="F230" s="1">
-        <v>501</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B231" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C231" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D231" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E231" s="2">
-        <v>53703</v>
+        <v>28211</v>
       </c>
       <c r="F231" s="1">
-        <v>5103</v>
+        <v>501</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B232" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C232" t="s">
-        <v>269</v>
+        <v>741</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E232" s="2">
-        <v>92121</v>
+        <v>53703</v>
       </c>
       <c r="F232" s="1">
-        <v>2115</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B233" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C233" t="s">
-        <v>746</v>
+        <v>269</v>
       </c>
       <c r="D233" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E233" s="2">
-        <v>35046</v>
+        <v>92121</v>
       </c>
       <c r="F233" s="1">
-        <v>502</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B234" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C234" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D234" t="s">
-        <v>750</v>
+        <v>8</v>
       </c>
       <c r="E234" s="2">
-        <v>840</v>
+        <v>35046</v>
       </c>
       <c r="F234" s="1">
-        <v>4425</v>
+        <v>502</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B235" t="s">
-        <v>175</v>
+        <v>748</v>
       </c>
       <c r="C235" t="s">
-        <v>176</v>
+        <v>749</v>
       </c>
       <c r="D235" t="s">
-        <v>177</v>
+        <v>750</v>
       </c>
       <c r="E235" s="2">
-        <v>4401</v>
+        <v>840</v>
       </c>
       <c r="F235" s="1">
-        <v>5112</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B236" t="s">
-        <v>753</v>
+        <v>175</v>
       </c>
       <c r="C236" t="s">
-        <v>604</v>
+        <v>176</v>
       </c>
       <c r="D236" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E236" s="2">
-        <v>10027</v>
+        <v>4401</v>
       </c>
       <c r="F236" s="1">
-        <v>4404</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B237" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C237" t="s">
-        <v>757</v>
+        <v>604</v>
       </c>
       <c r="D237" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="E237" s="2">
-        <v>92660</v>
+        <v>10027</v>
       </c>
       <c r="F237" s="1">
-        <v>8034</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B238" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C238" t="s">
-        <v>254</v>
+        <v>757</v>
       </c>
       <c r="D238" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E238" s="2">
-        <v>33155</v>
+        <v>92660</v>
       </c>
       <c r="F238" s="1">
-        <v>5544</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B239" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C239" t="s">
-        <v>762</v>
+        <v>254</v>
       </c>
       <c r="D239" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E239" s="2">
-        <v>90022</v>
+        <v>33155</v>
       </c>
       <c r="F239" s="1">
-        <v>1210</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B240" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C240" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D240" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E240" s="2">
-        <v>60445</v>
+        <v>90022</v>
       </c>
       <c r="F240" s="1">
-        <v>3656</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B241" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C241" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D241" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E241" s="2">
-        <v>53403</v>
+        <v>60445</v>
       </c>
       <c r="F241" s="1">
-        <v>1216</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B242" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C242" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E242" s="2">
-        <v>36801</v>
+        <v>53403</v>
       </c>
       <c r="F242" s="1">
-        <v>5476</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B243" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C243" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D243" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="E243" s="2">
-        <v>21093</v>
+        <v>36801</v>
       </c>
       <c r="F243" s="1">
-        <v>2130</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B244" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C244" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D244" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="E244" s="2">
-        <v>44503</v>
+        <v>21093</v>
       </c>
       <c r="F244" s="1">
-        <v>1207</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B245" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C245" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D245" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="E245" s="2">
-        <v>98029</v>
+        <v>44503</v>
       </c>
       <c r="F245" s="1">
-        <v>5297</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B246" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C246" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D246" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="E246" s="2">
-        <v>60527</v>
+        <v>98029</v>
       </c>
       <c r="F246" s="1">
-        <v>2987</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B247" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C247" t="s">
-        <v>127</v>
+        <v>783</v>
       </c>
       <c r="D247" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="E247" s="2">
-        <v>37813</v>
+        <v>60527</v>
       </c>
       <c r="F247" s="1">
-        <v>1659</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B248" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C248" t="s">
-        <v>788</v>
+        <v>127</v>
       </c>
       <c r="D248" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E248" s="2">
-        <v>33950</v>
+        <v>37813</v>
       </c>
       <c r="F248" s="1">
-        <v>4459</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B249" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C249" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D249" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="E249" s="2">
-        <v>14701</v>
+        <v>33950</v>
       </c>
       <c r="F249" s="1">
-        <v>5206</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B250" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C250" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D250" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="E250" s="2">
-        <v>54911</v>
+        <v>14701</v>
       </c>
       <c r="F250" s="1">
-        <v>5898</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B251" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C251" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D251" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E251" s="2">
-        <v>70122</v>
+        <v>54911</v>
       </c>
       <c r="F251" s="1">
-        <v>3501</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B252" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C252" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D252" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="E252" s="2">
-        <v>46122</v>
+        <v>70122</v>
       </c>
       <c r="F252" s="1">
-        <v>1779</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B253" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C253" t="s">
-        <v>755</v>
+        <v>800</v>
       </c>
       <c r="D253" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="E253" s="2">
-        <v>15501</v>
+        <v>46122</v>
       </c>
       <c r="F253" s="1">
-        <v>2047</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B254" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C254" t="s">
-        <v>805</v>
+        <v>755</v>
       </c>
       <c r="D254" t="s">
-        <v>806</v>
+        <v>64</v>
       </c>
       <c r="E254" s="2">
-        <v>96799</v>
+        <v>15501</v>
       </c>
       <c r="F254" s="1">
-        <v>6296</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B255" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C255" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D255" t="s">
-        <v>40</v>
+        <v>806</v>
       </c>
       <c r="E255" s="2">
-        <v>75503</v>
+        <v>96799</v>
       </c>
       <c r="F255" s="1">
-        <v>3094</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B256" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C256" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D256" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="E256" s="2">
-        <v>11530</v>
+        <v>75503</v>
       </c>
       <c r="F256" s="1">
-        <v>3338</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B257" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C257" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D257" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="E257" s="2">
-        <v>28451</v>
+        <v>11530</v>
       </c>
       <c r="F257" s="1">
-        <v>4183</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B258" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C258" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D258" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="E258" s="2">
-        <v>73102</v>
+        <v>28451</v>
       </c>
       <c r="F258" s="1">
-        <v>5849</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B259" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C259" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D259" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="E259" s="2">
-        <v>85234</v>
+        <v>73102</v>
       </c>
       <c r="F259" s="1">
-        <v>5812</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B260" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C260" t="s">
-        <v>137</v>
+        <v>821</v>
       </c>
       <c r="D260" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="E260" s="2">
-        <v>92866</v>
+        <v>85234</v>
       </c>
       <c r="F260" s="1">
-        <v>2145</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B261" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C261" t="s">
-        <v>826</v>
+        <v>137</v>
       </c>
       <c r="D261" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="E261" s="2">
-        <v>29407</v>
+        <v>92866</v>
       </c>
       <c r="F261" s="1">
-        <v>4631</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B262" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C262" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D262" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E262" s="2">
-        <v>23219</v>
+        <v>29407</v>
       </c>
       <c r="F262" s="1">
-        <v>1321</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B263" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C263" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D263" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="E263" s="2">
-        <v>53005</v>
+        <v>23219</v>
       </c>
       <c r="F263" s="1">
-        <v>6294</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B264" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C264" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D264" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="E264" s="2">
-        <v>10474</v>
+        <v>53005</v>
       </c>
       <c r="F264" s="1">
-        <v>5331</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B265" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C265" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D265" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="E265" s="2">
-        <v>62450</v>
+        <v>10474</v>
       </c>
       <c r="F265" s="1">
-        <v>2258</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B266" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C266" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D266" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="E266" s="2">
-        <v>14617</v>
+        <v>62450</v>
       </c>
       <c r="F266" s="1">
-        <v>4125</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>842</v>
+      </c>
+      <c r="B267" t="s">
+        <v>840</v>
+      </c>
+      <c r="C267" t="s">
+        <v>841</v>
+      </c>
+      <c r="D267" t="s">
+        <v>187</v>
+      </c>
+      <c r="E267" s="2">
+        <v>14617</v>
+      </c>
+      <c r="F267" s="1">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>845</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>843</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C268" t="s">
         <v>844</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D268" t="s">
         <v>160</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E268" s="2">
         <v>98040</v>
       </c>
-      <c r="F267" s="1">
+      <c r="F268" s="1">
         <v>2843</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>846</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C269" t="s">
         <v>224</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D269" t="s">
         <v>40</v>
       </c>
-      <c r="E268" s="2">
+      <c r="E269" s="2">
         <v>78209</v>
       </c>
-      <c r="F268" s="1">
+      <c r="F269" s="1">
         <v>1530</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>850</v>
-      </c>
-      <c r="B269" t="s">
-        <v>848</v>
-      </c>
-      <c r="C269" t="s">
-        <v>849</v>
-      </c>
-      <c r="D269" t="s">
-        <v>173</v>
-      </c>
-      <c r="E269" s="2">
-        <v>83301</v>
-      </c>
-      <c r="F269" s="1">
-        <v>3392</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B270" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C270" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D270" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="E270" s="2">
-        <v>15401</v>
+        <v>83301</v>
       </c>
       <c r="F270" s="1">
-        <v>3545</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B271" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C271" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D271" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E271" s="2">
-        <v>7201</v>
+        <v>15401</v>
       </c>
       <c r="F271" s="1">
-        <v>2811</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B272" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C272" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D272" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E272" s="2">
-        <v>21204</v>
+        <v>7201</v>
       </c>
       <c r="F272" s="1">
-        <v>4022</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B273" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C273" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D273" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="E273" s="2">
-        <v>69361</v>
+        <v>21204</v>
       </c>
       <c r="F273" s="1">
-        <v>1445</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B274" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C274" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D274" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E274" s="2">
-        <v>70005</v>
+        <v>69361</v>
       </c>
       <c r="F274" s="1">
-        <v>4970</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B275" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C275" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D275" t="s">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="E275" s="2">
-        <v>85260</v>
+        <v>70005</v>
       </c>
       <c r="F275" s="1">
-        <v>5571</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B276" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C276" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D276" t="s">
-        <v>8</v>
+        <v>316</v>
       </c>
       <c r="E276" s="2">
-        <v>35401</v>
+        <v>85260</v>
       </c>
       <c r="F276" s="1">
-        <v>2861</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B277" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C277" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D277" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E277" s="2">
-        <v>31088</v>
+        <v>35401</v>
       </c>
       <c r="F277" s="1">
-        <v>7813</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B278" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C278" t="s">
-        <v>601</v>
+        <v>873</v>
       </c>
       <c r="D278" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E278" s="2">
-        <v>84111</v>
+        <v>31088</v>
       </c>
       <c r="F278" s="1">
-        <v>1180</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B279" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C279" t="s">
-        <v>204</v>
+        <v>601</v>
       </c>
       <c r="D279" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E279" s="2">
-        <v>94588</v>
+        <v>84111</v>
       </c>
       <c r="F279" s="1">
-        <v>2836</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B280" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C280" t="s">
-        <v>880</v>
+        <v>204</v>
       </c>
       <c r="D280" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E280" s="2">
-        <v>65775</v>
+        <v>94588</v>
       </c>
       <c r="F280" s="1">
-        <v>3453</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B281" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C281" t="s">
-        <v>690</v>
+        <v>880</v>
       </c>
       <c r="D281" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="E281" s="2">
-        <v>13601</v>
+        <v>65775</v>
       </c>
       <c r="F281" s="1">
-        <v>3370</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B282" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C282" t="s">
-        <v>885</v>
+        <v>690</v>
       </c>
       <c r="D282" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="E282" s="2">
-        <v>94592</v>
+        <v>13601</v>
       </c>
       <c r="F282" s="1">
-        <v>5706</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B283" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C283" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D283" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E283" s="2">
-        <v>45402</v>
+        <v>94592</v>
       </c>
       <c r="F283" s="1">
-        <v>1819</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B284" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C284" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D284" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="E284" s="2">
-        <v>1830</v>
+        <v>45402</v>
       </c>
       <c r="F284" s="1">
-        <v>5631</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B285" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C285" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D285" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E285" s="2">
-        <v>16354</v>
+        <v>1830</v>
       </c>
       <c r="F285" s="1">
-        <v>1727</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B286" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C286" t="s">
-        <v>433</v>
+        <v>894</v>
       </c>
       <c r="D286" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E286" s="2">
-        <v>89102</v>
+        <v>16354</v>
       </c>
       <c r="F286" s="1">
-        <v>4340</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B287" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C287" t="s">
-        <v>899</v>
+        <v>433</v>
       </c>
       <c r="D287" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="E287" s="2">
-        <v>12305</v>
+        <v>89102</v>
       </c>
       <c r="F287" s="1">
-        <v>1905</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B288" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C288" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D288" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E288" s="2">
-        <v>81003</v>
+        <v>12305</v>
       </c>
       <c r="F288" s="1">
-        <v>3132</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B289" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C289" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D289" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E289" s="2">
-        <v>92506</v>
+        <v>81003</v>
       </c>
       <c r="F289" s="1">
-        <v>2163</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B290" t="s">
-        <v>384</v>
+        <v>904</v>
       </c>
       <c r="C290" t="s">
-        <v>385</v>
+        <v>905</v>
       </c>
       <c r="D290" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="E290" s="2">
-        <v>96850</v>
+        <v>92506</v>
       </c>
       <c r="F290" s="1">
-        <v>5104</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B291" t="s">
-        <v>908</v>
+        <v>384</v>
       </c>
       <c r="C291" t="s">
-        <v>909</v>
+        <v>385</v>
       </c>
       <c r="D291" t="s">
-        <v>24</v>
+        <v>386</v>
       </c>
       <c r="E291" s="2">
-        <v>91763</v>
+        <v>96850</v>
       </c>
       <c r="F291" s="1">
-        <v>2331</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B292" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C292" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D292" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E292" s="2">
-        <v>48084</v>
+        <v>91763</v>
       </c>
       <c r="F292" s="1">
-        <v>4141</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B293" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C293" t="s">
-        <v>351</v>
+        <v>912</v>
       </c>
       <c r="D293" t="s">
         <v>13</v>
       </c>
       <c r="E293" s="2">
-        <v>49085</v>
+        <v>48084</v>
       </c>
       <c r="F293" s="1">
-        <v>2182</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B294" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C294" t="s">
-        <v>917</v>
+        <v>351</v>
       </c>
       <c r="D294" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E294" s="2">
-        <v>46360</v>
+        <v>49085</v>
       </c>
       <c r="F294" s="1">
-        <v>3271</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B295" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C295" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D295" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="E295" s="2">
-        <v>21157</v>
+        <v>46360</v>
       </c>
       <c r="F295" s="1">
-        <v>6174</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B296" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C296" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D296" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="E296" s="2">
-        <v>93230</v>
+        <v>21157</v>
       </c>
       <c r="F296" s="1">
-        <v>4579</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B297" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C297" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D297" t="s">
         <v>24</v>
       </c>
       <c r="E297" s="2">
-        <v>91910</v>
+        <v>93230</v>
       </c>
       <c r="F297" s="1">
-        <v>2624</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B298" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C298" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D298" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="E298" s="2">
-        <v>42167</v>
+        <v>91910</v>
       </c>
       <c r="F298" s="1">
-        <v>1548</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B299" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C299" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D299" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="E299" s="2">
-        <v>29171</v>
+        <v>42167</v>
       </c>
       <c r="F299" s="1">
-        <v>2381</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B300" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C300" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D300" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="E300" s="2">
-        <v>30265</v>
+        <v>29171</v>
       </c>
       <c r="F300" s="1">
-        <v>1325</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B301" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C301" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D301" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E301" s="2">
-        <v>33154</v>
+        <v>30265</v>
       </c>
       <c r="F301" s="1">
-        <v>3009</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B302" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C302" t="s">
-        <v>841</v>
+        <v>938</v>
       </c>
       <c r="D302" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="E302" s="2">
-        <v>55901</v>
+        <v>33154</v>
       </c>
       <c r="F302" s="1">
-        <v>1732</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B303" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C303" t="s">
-        <v>544</v>
+        <v>841</v>
       </c>
       <c r="D303" t="s">
-        <v>545</v>
+        <v>303</v>
       </c>
       <c r="E303" s="2">
-        <v>5401</v>
+        <v>55901</v>
       </c>
       <c r="F303" s="1">
-        <v>5910</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B304" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C304" t="s">
-        <v>945</v>
+        <v>544</v>
       </c>
       <c r="D304" t="s">
-        <v>134</v>
+        <v>545</v>
       </c>
       <c r="E304" s="2">
-        <v>23692</v>
+        <v>5401</v>
       </c>
       <c r="F304" s="1">
-        <v>2769</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B305" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C305" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D305" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="E305" s="2">
-        <v>33169</v>
+        <v>23692</v>
       </c>
       <c r="F305" s="1">
-        <v>4525</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B306" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C306" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E306" s="2">
-        <v>30046</v>
+        <v>33169</v>
       </c>
       <c r="F306" s="1">
-        <v>6935</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B307" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C307" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D307" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E307" s="2">
-        <v>63144</v>
+        <v>30046</v>
       </c>
       <c r="F307" s="1">
-        <v>2735</v>
+        <v>6935</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B308" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C308" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D308" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="E308" s="2">
-        <v>46601</v>
+        <v>63144</v>
       </c>
       <c r="F308" s="1">
-        <v>1606</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B309" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C309" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D309" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="E309" s="2">
-        <v>77566</v>
+        <v>46601</v>
       </c>
       <c r="F309" s="1">
-        <v>5245</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B310" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C310" t="s">
-        <v>382</v>
+        <v>960</v>
       </c>
       <c r="D310" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E310" s="2">
-        <v>45662</v>
+        <v>77566</v>
       </c>
       <c r="F310" s="1">
-        <v>4262</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B311" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C311" t="s">
-        <v>965</v>
+        <v>382</v>
       </c>
       <c r="D311" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E311" s="2">
-        <v>76033</v>
+        <v>45662</v>
       </c>
       <c r="F311" s="1">
-        <v>5501</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B312" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C312" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D312" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E312" s="2">
-        <v>27262</v>
+        <v>76033</v>
       </c>
       <c r="F312" s="1">
-        <v>2644</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B313" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C313" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D313" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E313" s="2">
-        <v>92688</v>
+        <v>27262</v>
       </c>
       <c r="F313" s="1">
-        <v>5597</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B314" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C314" t="s">
-        <v>376</v>
+        <v>971</v>
       </c>
       <c r="D314" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E314" s="2">
-        <v>71857</v>
+        <v>92688</v>
       </c>
       <c r="F314" s="1">
-        <v>3608</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B315" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C315" t="s">
-        <v>976</v>
+        <v>376</v>
       </c>
       <c r="D315" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="E315" s="2">
-        <v>8550</v>
+        <v>71857</v>
       </c>
       <c r="F315" s="1">
-        <v>1031</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B316" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C316" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D316" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E316" s="2">
-        <v>40258</v>
+        <v>8550</v>
       </c>
       <c r="F316" s="1">
-        <v>3756</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B317" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C317" t="s">
-        <v>203</v>
+        <v>979</v>
       </c>
       <c r="D317" t="s">
-        <v>440</v>
+        <v>117</v>
       </c>
       <c r="E317" s="2">
-        <v>66101</v>
+        <v>40258</v>
       </c>
       <c r="F317" s="1">
-        <v>2409</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B318" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C318" t="s">
-        <v>984</v>
+        <v>203</v>
       </c>
       <c r="D318" t="s">
-        <v>109</v>
+        <v>440</v>
       </c>
       <c r="E318" s="2">
-        <v>47130</v>
+        <v>66101</v>
       </c>
       <c r="F318" s="1">
-        <v>3669</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B319" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C319" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D319" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E319" s="2">
-        <v>32073</v>
+        <v>47130</v>
       </c>
       <c r="F319" s="1">
-        <v>4411</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B320" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C320" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D320" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="E320" s="2">
-        <v>50309</v>
+        <v>32073</v>
       </c>
       <c r="F320" s="1">
-        <v>1825</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B321" t="s">
-        <v>358</v>
+        <v>989</v>
       </c>
       <c r="C321" t="s">
-        <v>359</v>
+        <v>990</v>
       </c>
       <c r="D321" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E321" s="2">
-        <v>11968</v>
+        <v>50309</v>
       </c>
       <c r="F321" s="1">
-        <v>4923</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>992</v>
+      </c>
+      <c r="B322" t="s">
+        <v>358</v>
+      </c>
+      <c r="C322" t="s">
+        <v>359</v>
+      </c>
+      <c r="D322" t="s">
+        <v>187</v>
+      </c>
+      <c r="E322" s="2">
+        <v>11968</v>
+      </c>
+      <c r="F322" s="1">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>993</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>994</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C323" t="s">
         <v>282</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D323" t="s">
         <v>283</v>
       </c>
-      <c r="E322" s="2">
+      <c r="E323" s="2">
         <v>59715</v>
       </c>
-      <c r="F322" s="1">
+      <c r="F323" s="1">
         <v>2562</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E323" s="2"/>
-      <c r="F323" s="1"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E324" s="2"/>
@@ -9990,8 +10018,12 @@
       <c r="E372" s="2"/>
       <c r="F372" s="1"/>
     </row>
+    <row r="373" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E373" s="2"/>
+      <c r="F373" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F372"/>
+  <autoFilter ref="A1:F373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1081">
   <si>
     <t>Address</t>
   </si>
@@ -3024,6 +3024,252 @@
   </si>
   <si>
     <t>NC </t>
+  </si>
+  <si>
+    <t>FLL000015</t>
+  </si>
+  <si>
+    <t>FLL000034</t>
+  </si>
+  <si>
+    <t>FLL000019</t>
+  </si>
+  <si>
+    <t>FLL000147</t>
+  </si>
+  <si>
+    <t>FLL000017</t>
+  </si>
+  <si>
+    <t>FLL000141</t>
+  </si>
+  <si>
+    <t>FLL000143</t>
+  </si>
+  <si>
+    <t>FLL000002</t>
+  </si>
+  <si>
+    <t>FLL000102</t>
+  </si>
+  <si>
+    <t>FLL000199</t>
+  </si>
+  <si>
+    <t>FLL000022</t>
+  </si>
+  <si>
+    <t>FLL000012</t>
+  </si>
+  <si>
+    <t>FLL000023</t>
+  </si>
+  <si>
+    <t>FLL000086</t>
+  </si>
+  <si>
+    <t>FLL000054</t>
+  </si>
+  <si>
+    <t>FLL000031</t>
+  </si>
+  <si>
+    <t>FLL000190</t>
+  </si>
+  <si>
+    <t>FLL000041</t>
+  </si>
+  <si>
+    <t>FLL000181</t>
+  </si>
+  <si>
+    <t>FLL000064</t>
+  </si>
+  <si>
+    <t>FLL000009</t>
+  </si>
+  <si>
+    <t>FLL000032</t>
+  </si>
+  <si>
+    <t>FLL000026</t>
+  </si>
+  <si>
+    <t>FLL000003</t>
+  </si>
+  <si>
+    <t>FLL000036</t>
+  </si>
+  <si>
+    <t>FLL000027</t>
+  </si>
+  <si>
+    <t>FLL000037</t>
+  </si>
+  <si>
+    <t>FLL000033</t>
+  </si>
+  <si>
+    <t>FLL000025</t>
+  </si>
+  <si>
+    <t>FLL000006</t>
+  </si>
+  <si>
+    <t>FLL000014</t>
+  </si>
+  <si>
+    <t>FLL000016</t>
+  </si>
+  <si>
+    <t>FLL000057</t>
+  </si>
+  <si>
+    <t>FLL000168</t>
+  </si>
+  <si>
+    <t>FLL000010</t>
+  </si>
+  <si>
+    <t>FLL000395</t>
+  </si>
+  <si>
+    <t>FLL000253</t>
+  </si>
+  <si>
+    <t>FLL000170</t>
+  </si>
+  <si>
+    <t>FLL000094</t>
+  </si>
+  <si>
+    <t>FLL000164</t>
+  </si>
+  <si>
+    <t>4300 Legendary Dr Suite 230</t>
+  </si>
+  <si>
+    <t>251 Maitland Ave Suite 304</t>
+  </si>
+  <si>
+    <t>Somewhere</t>
+  </si>
+  <si>
+    <t>101 E Union St Suite 104</t>
+  </si>
+  <si>
+    <t>209 Dunlawton Ave Unit 17</t>
+  </si>
+  <si>
+    <t>2233 Park Ave Suite 303</t>
+  </si>
+  <si>
+    <t>5500 East Highway 100</t>
+  </si>
+  <si>
+    <t>405 Tompkins St</t>
+  </si>
+  <si>
+    <t>5901 SW 16th St</t>
+  </si>
+  <si>
+    <t>1919 Atlantic Blvd</t>
+  </si>
+  <si>
+    <t>1600 Key Deer Blvd</t>
+  </si>
+  <si>
+    <t>1490 W 68th St Suite 201</t>
+  </si>
+  <si>
+    <t>9580 W Calusa Club Dr</t>
+  </si>
+  <si>
+    <t>606 NW 183rd St</t>
+  </si>
+  <si>
+    <t>3050 Biscayne Blvd Suite 600</t>
+  </si>
+  <si>
+    <t>100 NW 1st Ave</t>
+  </si>
+  <si>
+    <t>2600 Hollywood Blvd</t>
+  </si>
+  <si>
+    <t>3500 SW Corporate Pkwy Suite 204</t>
+  </si>
+  <si>
+    <t>2151 NW Sistrunk Blvd</t>
+  </si>
+  <si>
+    <t>2310 1st St Unit 305</t>
+  </si>
+  <si>
+    <t>214 SOB 404 S Monroe St</t>
+  </si>
+  <si>
+    <t>5790 Margate Blvd</t>
+  </si>
+  <si>
+    <t>417 Commercial Ct Suite D</t>
+  </si>
+  <si>
+    <t>508 Lake Ave Unit C</t>
+  </si>
+  <si>
+    <t>1023 Manatee Ave W Suite 201</t>
+  </si>
+  <si>
+    <t>12300 W Forest Hill Blvd Suite 200</t>
+  </si>
+  <si>
+    <t>915 Oakfield Dr Suite D</t>
+  </si>
+  <si>
+    <t>3299 E Tamiami Trl Suite 203</t>
+  </si>
+  <si>
+    <t>3637 4th St N Unit 101</t>
+  </si>
+  <si>
+    <t>205 S Commerce Ave Suite A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26133 US Hwy 19 N Suite 201 </t>
+  </si>
+  <si>
+    <t>209 E Zaragoza St</t>
+  </si>
+  <si>
+    <t>508 W Dr. Martin Luther King Jr. Blvd Suite C</t>
+  </si>
+  <si>
+    <t>5612 Grand Blvd</t>
+  </si>
+  <si>
+    <t>262 Crystal Grove Blvd</t>
+  </si>
+  <si>
+    <t>8910 Astonaut Blvd Suite 210</t>
+  </si>
+  <si>
+    <t>2033 E Edgewood St Suite 101</t>
+  </si>
+  <si>
+    <t>101 N Church St Suite 305</t>
+  </si>
+  <si>
+    <t>1013 E Michigan St</t>
+  </si>
+  <si>
+    <t>511 W South St Suite 204</t>
+  </si>
+  <si>
+    <t>871 S Central Ave Suite C</t>
+  </si>
+  <si>
+    <t>state_tx_gov_greg_abbott</t>
   </si>
 </sst>
 </file>
@@ -3350,13 +3596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
@@ -9823,182 +10069,838 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E324" s="2"/>
-      <c r="F324" s="1"/>
+      <c r="A324" t="s">
+        <v>999</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D324" t="s">
+        <v>58</v>
+      </c>
+      <c r="E324" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F324" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E325" s="2"/>
-      <c r="F325" s="1"/>
+      <c r="A325" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D325" t="s">
+        <v>58</v>
+      </c>
+      <c r="E325" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F325" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E326" s="2"/>
-      <c r="F326" s="1"/>
+      <c r="A326" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D326" t="s">
+        <v>58</v>
+      </c>
+      <c r="E326" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F326" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E327" s="2"/>
-      <c r="F327" s="1"/>
+      <c r="A327" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D327" t="s">
+        <v>58</v>
+      </c>
+      <c r="E327" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F327" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E328" s="2"/>
-      <c r="F328" s="1"/>
+      <c r="A328" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D328" t="s">
+        <v>58</v>
+      </c>
+      <c r="E328" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F328" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E329" s="2"/>
-      <c r="F329" s="1"/>
+      <c r="A329" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D329" t="s">
+        <v>58</v>
+      </c>
+      <c r="E329" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F329" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E330" s="2"/>
-      <c r="F330" s="1"/>
+      <c r="A330" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D330" t="s">
+        <v>58</v>
+      </c>
+      <c r="E330" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F330" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E331" s="2"/>
-      <c r="F331" s="1"/>
+      <c r="A331" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D331" t="s">
+        <v>58</v>
+      </c>
+      <c r="E331" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F331" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E332" s="2"/>
-      <c r="F332" s="1"/>
+      <c r="A332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D332" t="s">
+        <v>58</v>
+      </c>
+      <c r="E332" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F332" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E333" s="2"/>
-      <c r="F333" s="1"/>
+      <c r="A333" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D333" t="s">
+        <v>58</v>
+      </c>
+      <c r="E333" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F333" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E334" s="2"/>
-      <c r="F334" s="1"/>
+      <c r="A334" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D334" t="s">
+        <v>58</v>
+      </c>
+      <c r="E334" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F334" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E335" s="2"/>
-      <c r="F335" s="1"/>
+      <c r="A335" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D335" t="s">
+        <v>58</v>
+      </c>
+      <c r="E335" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F335" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E336" s="2"/>
-      <c r="F336" s="1"/>
-    </row>
-    <row r="337" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E337" s="2"/>
-      <c r="F337" s="1"/>
-    </row>
-    <row r="338" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E338" s="2"/>
-      <c r="F338" s="1"/>
-    </row>
-    <row r="339" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E339" s="2"/>
-      <c r="F339" s="1"/>
-    </row>
-    <row r="340" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E340" s="2"/>
-      <c r="F340" s="1"/>
-    </row>
-    <row r="341" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E341" s="2"/>
-      <c r="F341" s="1"/>
-    </row>
-    <row r="342" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E342" s="2"/>
-      <c r="F342" s="1"/>
-    </row>
-    <row r="343" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E343" s="2"/>
-      <c r="F343" s="1"/>
-    </row>
-    <row r="344" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E344" s="2"/>
-      <c r="F344" s="1"/>
-    </row>
-    <row r="345" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E345" s="2"/>
-      <c r="F345" s="1"/>
-    </row>
-    <row r="346" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E346" s="2"/>
-      <c r="F346" s="1"/>
-    </row>
-    <row r="347" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E347" s="2"/>
-      <c r="F347" s="1"/>
-    </row>
-    <row r="348" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E348" s="2"/>
-      <c r="F348" s="1"/>
-    </row>
-    <row r="349" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E349" s="2"/>
-      <c r="F349" s="1"/>
-    </row>
-    <row r="350" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E350" s="2"/>
-      <c r="F350" s="1"/>
-    </row>
-    <row r="351" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E351" s="2"/>
-      <c r="F351" s="1"/>
-    </row>
-    <row r="352" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E352" s="2"/>
-      <c r="F352" s="1"/>
-    </row>
-    <row r="353" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E353" s="2"/>
-      <c r="F353" s="1"/>
-    </row>
-    <row r="354" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E354" s="2"/>
-      <c r="F354" s="1"/>
-    </row>
-    <row r="355" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E355" s="2"/>
-      <c r="F355" s="1"/>
-    </row>
-    <row r="356" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E356" s="2"/>
-      <c r="F356" s="1"/>
-    </row>
-    <row r="357" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E357" s="2"/>
-      <c r="F357" s="1"/>
-    </row>
-    <row r="358" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E358" s="2"/>
-      <c r="F358" s="1"/>
-    </row>
-    <row r="359" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E359" s="2"/>
-      <c r="F359" s="1"/>
-    </row>
-    <row r="360" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E360" s="2"/>
-      <c r="F360" s="1"/>
-    </row>
-    <row r="361" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E361" s="2"/>
-      <c r="F361" s="1"/>
-    </row>
-    <row r="362" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E362" s="2"/>
-      <c r="F362" s="1"/>
-    </row>
-    <row r="363" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E363" s="2"/>
-      <c r="F363" s="1"/>
-    </row>
-    <row r="364" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E364" s="2"/>
-      <c r="F364" s="1"/>
-    </row>
-    <row r="365" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D336" t="s">
+        <v>58</v>
+      </c>
+      <c r="E336" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F336" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D337" t="s">
+        <v>58</v>
+      </c>
+      <c r="E337" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F337" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D338" t="s">
+        <v>58</v>
+      </c>
+      <c r="E338" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F338" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D339" t="s">
+        <v>58</v>
+      </c>
+      <c r="E339" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F339" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D340" t="s">
+        <v>58</v>
+      </c>
+      <c r="E340" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F340" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D341" t="s">
+        <v>58</v>
+      </c>
+      <c r="E341" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F341" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D342" t="s">
+        <v>58</v>
+      </c>
+      <c r="E342" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F342" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D343" t="s">
+        <v>58</v>
+      </c>
+      <c r="E343" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F343" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D344" t="s">
+        <v>58</v>
+      </c>
+      <c r="E344" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F344" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D345" t="s">
+        <v>58</v>
+      </c>
+      <c r="E345" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F345" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D346" t="s">
+        <v>58</v>
+      </c>
+      <c r="E346" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F346" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D347" t="s">
+        <v>58</v>
+      </c>
+      <c r="E347" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F347" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D348" t="s">
+        <v>58</v>
+      </c>
+      <c r="E348" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F348" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D349" t="s">
+        <v>58</v>
+      </c>
+      <c r="E349" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F349" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D350" t="s">
+        <v>58</v>
+      </c>
+      <c r="E350" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F350" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D351" t="s">
+        <v>58</v>
+      </c>
+      <c r="E351" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F351" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D352" t="s">
+        <v>58</v>
+      </c>
+      <c r="E352" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F352" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D353" t="s">
+        <v>58</v>
+      </c>
+      <c r="E353" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F353" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D354" t="s">
+        <v>58</v>
+      </c>
+      <c r="E354" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D355" t="s">
+        <v>58</v>
+      </c>
+      <c r="E355" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F355" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D356" t="s">
+        <v>58</v>
+      </c>
+      <c r="E356" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F356" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D357" t="s">
+        <v>58</v>
+      </c>
+      <c r="E357" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F357" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D358" t="s">
+        <v>58</v>
+      </c>
+      <c r="E358" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F358" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D359" t="s">
+        <v>58</v>
+      </c>
+      <c r="E359" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F359" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D360" t="s">
+        <v>58</v>
+      </c>
+      <c r="E360" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F360" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D361" t="s">
+        <v>58</v>
+      </c>
+      <c r="E361" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F361" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D362" t="s">
+        <v>58</v>
+      </c>
+      <c r="E362" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F362" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D363" t="s">
+        <v>58</v>
+      </c>
+      <c r="E363" s="2">
+        <v>32541</v>
+      </c>
+      <c r="F363" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B364" t="s">
+        <v>38</v>
+      </c>
+      <c r="C364" t="s">
+        <v>39</v>
+      </c>
+      <c r="D364" t="s">
+        <v>40</v>
+      </c>
+      <c r="E364" s="2">
+        <v>75119</v>
+      </c>
+      <c r="F364" s="1">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E365" s="2"/>
       <c r="F365" s="1"/>
     </row>
-    <row r="366" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E366" s="2"/>
       <c r="F366" s="1"/>
     </row>
-    <row r="367" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E367" s="2"/>
       <c r="F367" s="1"/>
     </row>
-    <row r="368" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E368" s="2"/>
       <c r="F368" s="1"/>
     </row>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SShepherd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SShepherd\Documents\GitHub\domMonitor\support_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1290">
   <si>
     <t>Address</t>
   </si>
@@ -3270,6 +3270,633 @@
   </si>
   <si>
     <t>state_tx_gov_greg_abbott</t>
+  </si>
+  <si>
+    <t>NJL000175</t>
+  </si>
+  <si>
+    <t>NJL000186</t>
+  </si>
+  <si>
+    <t>NJL000149</t>
+  </si>
+  <si>
+    <t>NJL000184</t>
+  </si>
+  <si>
+    <t>NJL000189</t>
+  </si>
+  <si>
+    <t>NJL000008</t>
+  </si>
+  <si>
+    <t>NJL000171</t>
+  </si>
+  <si>
+    <t>NJL000011</t>
+  </si>
+  <si>
+    <t>NJL000016</t>
+  </si>
+  <si>
+    <t>NJL000014</t>
+  </si>
+  <si>
+    <t>NJL000019</t>
+  </si>
+  <si>
+    <t>NJL000018</t>
+  </si>
+  <si>
+    <t>NJL000022</t>
+  </si>
+  <si>
+    <t>NJL000129</t>
+  </si>
+  <si>
+    <t>NJL000150</t>
+  </si>
+  <si>
+    <t>NJL000179</t>
+  </si>
+  <si>
+    <t>NJL000027</t>
+  </si>
+  <si>
+    <t>NJL000028</t>
+  </si>
+  <si>
+    <t>NJL000030</t>
+  </si>
+  <si>
+    <t>NJL000152</t>
+  </si>
+  <si>
+    <t>NJL000037</t>
+  </si>
+  <si>
+    <t>NJL000034</t>
+  </si>
+  <si>
+    <t>NJL000157</t>
+  </si>
+  <si>
+    <t>NJL000092</t>
+  </si>
+  <si>
+    <t>NJL000040</t>
+  </si>
+  <si>
+    <t>NJL000036</t>
+  </si>
+  <si>
+    <t>NJL000128</t>
+  </si>
+  <si>
+    <t>NJL000044</t>
+  </si>
+  <si>
+    <t>NJL000192</t>
+  </si>
+  <si>
+    <t>NJL000047</t>
+  </si>
+  <si>
+    <t>NJL000169</t>
+  </si>
+  <si>
+    <t>NJL000131</t>
+  </si>
+  <si>
+    <t>NJL000188</t>
+  </si>
+  <si>
+    <t>NJL000052</t>
+  </si>
+  <si>
+    <t>NJL000183</t>
+  </si>
+  <si>
+    <t>NJL000055</t>
+  </si>
+  <si>
+    <t>NJL000059</t>
+  </si>
+  <si>
+    <t>NJL000058</t>
+  </si>
+  <si>
+    <t>NJL000062</t>
+  </si>
+  <si>
+    <t>NJL000193</t>
+  </si>
+  <si>
+    <t>NJL000064</t>
+  </si>
+  <si>
+    <t>NJL000065</t>
+  </si>
+  <si>
+    <t>NJL000068</t>
+  </si>
+  <si>
+    <t>NJL000067</t>
+  </si>
+  <si>
+    <t>NJL000071</t>
+  </si>
+  <si>
+    <t>NJL000070</t>
+  </si>
+  <si>
+    <t>NJL000074</t>
+  </si>
+  <si>
+    <t>NJL000176</t>
+  </si>
+  <si>
+    <t>NJL000075</t>
+  </si>
+  <si>
+    <t>NJL000076</t>
+  </si>
+  <si>
+    <t>NJL000170</t>
+  </si>
+  <si>
+    <t>NJL000080</t>
+  </si>
+  <si>
+    <t>NJL000082</t>
+  </si>
+  <si>
+    <t>NJL000083</t>
+  </si>
+  <si>
+    <t>NJL000085</t>
+  </si>
+  <si>
+    <t>NJL000086</t>
+  </si>
+  <si>
+    <t>NJL000177</t>
+  </si>
+  <si>
+    <t>NJL000088</t>
+  </si>
+  <si>
+    <t>NJL000033</t>
+  </si>
+  <si>
+    <t>NJL000032</t>
+  </si>
+  <si>
+    <t>NJL000095</t>
+  </si>
+  <si>
+    <t>NJL000096</t>
+  </si>
+  <si>
+    <t>NJL000161</t>
+  </si>
+  <si>
+    <t>NJL000099</t>
+  </si>
+  <si>
+    <t>NJL000180</t>
+  </si>
+  <si>
+    <t>NJL000185</t>
+  </si>
+  <si>
+    <t>NJL000104</t>
+  </si>
+  <si>
+    <t>NJL000105</t>
+  </si>
+  <si>
+    <t>NJL000165</t>
+  </si>
+  <si>
+    <t>NJL000164</t>
+  </si>
+  <si>
+    <t>NJL000111</t>
+  </si>
+  <si>
+    <t>NJL000166</t>
+  </si>
+  <si>
+    <t>NJL000114</t>
+  </si>
+  <si>
+    <t>NJL000113</t>
+  </si>
+  <si>
+    <t>NJL000182</t>
+  </si>
+  <si>
+    <t>NJL000167</t>
+  </si>
+  <si>
+    <t>NJL000168</t>
+  </si>
+  <si>
+    <t>NJL000181</t>
+  </si>
+  <si>
+    <t>NJL000122</t>
+  </si>
+  <si>
+    <t>NJL000123</t>
+  </si>
+  <si>
+    <t>NJL000001</t>
+  </si>
+  <si>
+    <t>NJL000004</t>
+  </si>
+  <si>
+    <t>NJL000007</t>
+  </si>
+  <si>
+    <t>NJL000010</t>
+  </si>
+  <si>
+    <t>NJL000136</t>
+  </si>
+  <si>
+    <t>NJL000017</t>
+  </si>
+  <si>
+    <t>NJL000043</t>
+  </si>
+  <si>
+    <t>NJL000045</t>
+  </si>
+  <si>
+    <t>NJL000051</t>
+  </si>
+  <si>
+    <t>NJL000056</t>
+  </si>
+  <si>
+    <t>NJL000057</t>
+  </si>
+  <si>
+    <t>NJL000060</t>
+  </si>
+  <si>
+    <t>NJL000066</t>
+  </si>
+  <si>
+    <t>NJL000081</t>
+  </si>
+  <si>
+    <t>NJL000084</t>
+  </si>
+  <si>
+    <t>NJL000087</t>
+  </si>
+  <si>
+    <t>NJL000093</t>
+  </si>
+  <si>
+    <t>NJL000097</t>
+  </si>
+  <si>
+    <t>NJL000100</t>
+  </si>
+  <si>
+    <t>NJL000103</t>
+  </si>
+  <si>
+    <t>NJL000107</t>
+  </si>
+  <si>
+    <t>NJL000109</t>
+  </si>
+  <si>
+    <t>NJL000112</t>
+  </si>
+  <si>
+    <t>NJL000115</t>
+  </si>
+  <si>
+    <t>111 Test Ave</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>112 Test Ave</t>
+  </si>
+  <si>
+    <t>113 Test Ave</t>
+  </si>
+  <si>
+    <t>114 Test Ave</t>
+  </si>
+  <si>
+    <t>115 Test Ave</t>
+  </si>
+  <si>
+    <t>116 Test Ave</t>
+  </si>
+  <si>
+    <t>117 Test Ave</t>
+  </si>
+  <si>
+    <t>118 Test Ave</t>
+  </si>
+  <si>
+    <t>119 Test Ave</t>
+  </si>
+  <si>
+    <t>120 Test Ave</t>
+  </si>
+  <si>
+    <t>121 Test Ave</t>
+  </si>
+  <si>
+    <t>122 Test Ave</t>
+  </si>
+  <si>
+    <t>123 Test Ave</t>
+  </si>
+  <si>
+    <t>124 Test Ave</t>
+  </si>
+  <si>
+    <t>125 Test Ave</t>
+  </si>
+  <si>
+    <t>126 Test Ave</t>
+  </si>
+  <si>
+    <t>127 Test Ave</t>
+  </si>
+  <si>
+    <t>128 Test Ave</t>
+  </si>
+  <si>
+    <t>129 Test Ave</t>
+  </si>
+  <si>
+    <t>130 Test Ave</t>
+  </si>
+  <si>
+    <t>131 Test Ave</t>
+  </si>
+  <si>
+    <t>132 Test Ave</t>
+  </si>
+  <si>
+    <t>133 Test Ave</t>
+  </si>
+  <si>
+    <t>134 Test Ave</t>
+  </si>
+  <si>
+    <t>135 Test Ave</t>
+  </si>
+  <si>
+    <t>136 Test Ave</t>
+  </si>
+  <si>
+    <t>137 Test Ave</t>
+  </si>
+  <si>
+    <t>138 Test Ave</t>
+  </si>
+  <si>
+    <t>139 Test Ave</t>
+  </si>
+  <si>
+    <t>140 Test Ave</t>
+  </si>
+  <si>
+    <t>141 Test Ave</t>
+  </si>
+  <si>
+    <t>142 Test Ave</t>
+  </si>
+  <si>
+    <t>143 Test Ave</t>
+  </si>
+  <si>
+    <t>144 Test Ave</t>
+  </si>
+  <si>
+    <t>145 Test Ave</t>
+  </si>
+  <si>
+    <t>146 Test Ave</t>
+  </si>
+  <si>
+    <t>147 Test Ave</t>
+  </si>
+  <si>
+    <t>148 Test Ave</t>
+  </si>
+  <si>
+    <t>149 Test Ave</t>
+  </si>
+  <si>
+    <t>150 Test Ave</t>
+  </si>
+  <si>
+    <t>151 Test Ave</t>
+  </si>
+  <si>
+    <t>152 Test Ave</t>
+  </si>
+  <si>
+    <t>153 Test Ave</t>
+  </si>
+  <si>
+    <t>154 Test Ave</t>
+  </si>
+  <si>
+    <t>155 Test Ave</t>
+  </si>
+  <si>
+    <t>156 Test Ave</t>
+  </si>
+  <si>
+    <t>157 Test Ave</t>
+  </si>
+  <si>
+    <t>158 Test Ave</t>
+  </si>
+  <si>
+    <t>159 Test Ave</t>
+  </si>
+  <si>
+    <t>160 Test Ave</t>
+  </si>
+  <si>
+    <t>161 Test Ave</t>
+  </si>
+  <si>
+    <t>162 Test Ave</t>
+  </si>
+  <si>
+    <t>163 Test Ave</t>
+  </si>
+  <si>
+    <t>164 Test Ave</t>
+  </si>
+  <si>
+    <t>165 Test Ave</t>
+  </si>
+  <si>
+    <t>166 Test Ave</t>
+  </si>
+  <si>
+    <t>167 Test Ave</t>
+  </si>
+  <si>
+    <t>168 Test Ave</t>
+  </si>
+  <si>
+    <t>169 Test Ave</t>
+  </si>
+  <si>
+    <t>170 Test Ave</t>
+  </si>
+  <si>
+    <t>171 Test Ave</t>
+  </si>
+  <si>
+    <t>172 Test Ave</t>
+  </si>
+  <si>
+    <t>173 Test Ave</t>
+  </si>
+  <si>
+    <t>174 Test Ave</t>
+  </si>
+  <si>
+    <t>175 Test Ave</t>
+  </si>
+  <si>
+    <t>176 Test Ave</t>
+  </si>
+  <si>
+    <t>177 Test Ave</t>
+  </si>
+  <si>
+    <t>178 Test Ave</t>
+  </si>
+  <si>
+    <t>179 Test Ave</t>
+  </si>
+  <si>
+    <t>180 Test Ave</t>
+  </si>
+  <si>
+    <t>181 Test Ave</t>
+  </si>
+  <si>
+    <t>182 Test Ave</t>
+  </si>
+  <si>
+    <t>183 Test Ave</t>
+  </si>
+  <si>
+    <t>184 Test Ave</t>
+  </si>
+  <si>
+    <t>185 Test Ave</t>
+  </si>
+  <si>
+    <t>186 Test Ave</t>
+  </si>
+  <si>
+    <t>187 Test Ave</t>
+  </si>
+  <si>
+    <t>188 Test Ave</t>
+  </si>
+  <si>
+    <t>189 Test Ave</t>
+  </si>
+  <si>
+    <t>190 Test Ave</t>
+  </si>
+  <si>
+    <t>191 Test Ave</t>
+  </si>
+  <si>
+    <t>192 Test Ave</t>
+  </si>
+  <si>
+    <t>193 Test Ave</t>
+  </si>
+  <si>
+    <t>194 Test Ave</t>
+  </si>
+  <si>
+    <t>195 Test Ave</t>
+  </si>
+  <si>
+    <t>196 Test Ave</t>
+  </si>
+  <si>
+    <t>197 Test Ave</t>
+  </si>
+  <si>
+    <t>198 Test Ave</t>
+  </si>
+  <si>
+    <t>199 Test Ave</t>
+  </si>
+  <si>
+    <t>200 Test Ave</t>
+  </si>
+  <si>
+    <t>201 Test Ave</t>
+  </si>
+  <si>
+    <t>202 Test Ave</t>
+  </si>
+  <si>
+    <t>203 Test Ave</t>
+  </si>
+  <si>
+    <t>204 Test Ave</t>
+  </si>
+  <si>
+    <t>205 Test Ave</t>
+  </si>
+  <si>
+    <t>206 Test Ave</t>
+  </si>
+  <si>
+    <t>207 Test Ave</t>
+  </si>
+  <si>
+    <t>208 Test Ave</t>
+  </si>
+  <si>
+    <t>209 Test Ave</t>
+  </si>
+  <si>
+    <t>210 Test Ave</t>
+  </si>
+  <si>
+    <t>211 Test Ave</t>
+  </si>
+  <si>
+    <t>212 Test Ave</t>
+  </si>
+  <si>
+    <t>213 Test Ave</t>
+  </si>
+  <si>
+    <t>214 Test Ave</t>
   </si>
 </sst>
 </file>
@@ -3594,10 +4221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:F468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A364" sqref="A364"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10889,40 +11516,2084 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E365" s="2"/>
-      <c r="F365" s="1"/>
+      <c r="A365" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D365" t="s">
+        <v>128</v>
+      </c>
+      <c r="E365" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F365" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E366" s="2"/>
-      <c r="F366" s="1"/>
+      <c r="A366" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D366" t="s">
+        <v>128</v>
+      </c>
+      <c r="E366" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F366" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E367" s="2"/>
-      <c r="F367" s="1"/>
+      <c r="A367" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D367" t="s">
+        <v>128</v>
+      </c>
+      <c r="E367" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F367" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E368" s="2"/>
-      <c r="F368" s="1"/>
-    </row>
-    <row r="369" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E369" s="2"/>
-      <c r="F369" s="1"/>
-    </row>
-    <row r="370" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E370" s="2"/>
-      <c r="F370" s="1"/>
-    </row>
-    <row r="371" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E371" s="2"/>
-      <c r="F371" s="1"/>
-    </row>
-    <row r="372" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E372" s="2"/>
-      <c r="F372" s="1"/>
-    </row>
-    <row r="373" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E373" s="2"/>
-      <c r="F373" s="1"/>
+      <c r="A368" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D368" t="s">
+        <v>128</v>
+      </c>
+      <c r="E368" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F368" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D369" t="s">
+        <v>128</v>
+      </c>
+      <c r="E369" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F369" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D370" t="s">
+        <v>128</v>
+      </c>
+      <c r="E370" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F370" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D371" t="s">
+        <v>128</v>
+      </c>
+      <c r="E371" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F371" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D372" t="s">
+        <v>128</v>
+      </c>
+      <c r="E372" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D373" t="s">
+        <v>128</v>
+      </c>
+      <c r="E373" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F373" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D374" t="s">
+        <v>128</v>
+      </c>
+      <c r="E374" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F374" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D375" t="s">
+        <v>128</v>
+      </c>
+      <c r="E375" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F375" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D376" t="s">
+        <v>128</v>
+      </c>
+      <c r="E376" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F376" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D377" t="s">
+        <v>128</v>
+      </c>
+      <c r="E377" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D378" t="s">
+        <v>128</v>
+      </c>
+      <c r="E378" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F378" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D379" t="s">
+        <v>128</v>
+      </c>
+      <c r="E379" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F379" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D380" t="s">
+        <v>128</v>
+      </c>
+      <c r="E380" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F380" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D381" t="s">
+        <v>128</v>
+      </c>
+      <c r="E381" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F381" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D382" t="s">
+        <v>128</v>
+      </c>
+      <c r="E382" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F382" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D383" t="s">
+        <v>128</v>
+      </c>
+      <c r="E383" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F383" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D384" t="s">
+        <v>128</v>
+      </c>
+      <c r="E384" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F384" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D385" t="s">
+        <v>128</v>
+      </c>
+      <c r="E385" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F385" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D386" t="s">
+        <v>128</v>
+      </c>
+      <c r="E386" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F386" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D387" t="s">
+        <v>128</v>
+      </c>
+      <c r="E387" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F387" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D388" t="s">
+        <v>128</v>
+      </c>
+      <c r="E388" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F388" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D389" t="s">
+        <v>128</v>
+      </c>
+      <c r="E389" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F389" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D390" t="s">
+        <v>128</v>
+      </c>
+      <c r="E390" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F390" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D391" t="s">
+        <v>128</v>
+      </c>
+      <c r="E391" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F391" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D392" t="s">
+        <v>128</v>
+      </c>
+      <c r="E392" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F392" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D393" t="s">
+        <v>128</v>
+      </c>
+      <c r="E393" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F393" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D394" t="s">
+        <v>128</v>
+      </c>
+      <c r="E394" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F394" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D395" t="s">
+        <v>128</v>
+      </c>
+      <c r="E395" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F395" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D396" t="s">
+        <v>128</v>
+      </c>
+      <c r="E396" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F396" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D397" t="s">
+        <v>128</v>
+      </c>
+      <c r="E397" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F397" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D398" t="s">
+        <v>128</v>
+      </c>
+      <c r="E398" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F398" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D399" t="s">
+        <v>128</v>
+      </c>
+      <c r="E399" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F399" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D400" t="s">
+        <v>128</v>
+      </c>
+      <c r="E400" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F400" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D401" t="s">
+        <v>128</v>
+      </c>
+      <c r="E401" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F401" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D402" t="s">
+        <v>128</v>
+      </c>
+      <c r="E402" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F402" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D403" t="s">
+        <v>128</v>
+      </c>
+      <c r="E403" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F403" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D404" t="s">
+        <v>128</v>
+      </c>
+      <c r="E404" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F404" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D405" t="s">
+        <v>128</v>
+      </c>
+      <c r="E405" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F405" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D406" t="s">
+        <v>128</v>
+      </c>
+      <c r="E406" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F406" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D407" t="s">
+        <v>128</v>
+      </c>
+      <c r="E407" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F407" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D408" t="s">
+        <v>128</v>
+      </c>
+      <c r="E408" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F408" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D409" t="s">
+        <v>128</v>
+      </c>
+      <c r="E409" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F409" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D410" t="s">
+        <v>128</v>
+      </c>
+      <c r="E410" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F410" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D411" t="s">
+        <v>128</v>
+      </c>
+      <c r="E411" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F411" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D412" t="s">
+        <v>128</v>
+      </c>
+      <c r="E412" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F412" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D413" t="s">
+        <v>128</v>
+      </c>
+      <c r="E413" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F413" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D414" t="s">
+        <v>128</v>
+      </c>
+      <c r="E414" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F414" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D415" t="s">
+        <v>128</v>
+      </c>
+      <c r="E415" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F415" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D416" t="s">
+        <v>128</v>
+      </c>
+      <c r="E416" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F416" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D417" t="s">
+        <v>128</v>
+      </c>
+      <c r="E417" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F417" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D418" t="s">
+        <v>128</v>
+      </c>
+      <c r="E418" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F418" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D419" t="s">
+        <v>128</v>
+      </c>
+      <c r="E419" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F419" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D420" t="s">
+        <v>128</v>
+      </c>
+      <c r="E420" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F420" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D421" t="s">
+        <v>128</v>
+      </c>
+      <c r="E421" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F421" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D422" t="s">
+        <v>128</v>
+      </c>
+      <c r="E422" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F422" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D423" t="s">
+        <v>128</v>
+      </c>
+      <c r="E423" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F423" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D424" t="s">
+        <v>128</v>
+      </c>
+      <c r="E424" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F424" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D425" t="s">
+        <v>128</v>
+      </c>
+      <c r="E425" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F425" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D426" t="s">
+        <v>128</v>
+      </c>
+      <c r="E426" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F426" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D427" t="s">
+        <v>128</v>
+      </c>
+      <c r="E427" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F427" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D428" t="s">
+        <v>128</v>
+      </c>
+      <c r="E428" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F428" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D429" t="s">
+        <v>128</v>
+      </c>
+      <c r="E429" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F429" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D430" t="s">
+        <v>128</v>
+      </c>
+      <c r="E430" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F430" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D431" t="s">
+        <v>128</v>
+      </c>
+      <c r="E431" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F431" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D432" t="s">
+        <v>128</v>
+      </c>
+      <c r="E432" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F432" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D433" t="s">
+        <v>128</v>
+      </c>
+      <c r="E433" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F433" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D434" t="s">
+        <v>128</v>
+      </c>
+      <c r="E434" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F434" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D435" t="s">
+        <v>128</v>
+      </c>
+      <c r="E435" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F435" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D436" t="s">
+        <v>128</v>
+      </c>
+      <c r="E436" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F436" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D437" t="s">
+        <v>128</v>
+      </c>
+      <c r="E437" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F437" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D438" t="s">
+        <v>128</v>
+      </c>
+      <c r="E438" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F438" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D439" t="s">
+        <v>128</v>
+      </c>
+      <c r="E439" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F439" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D440" t="s">
+        <v>128</v>
+      </c>
+      <c r="E440" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F440" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D441" t="s">
+        <v>128</v>
+      </c>
+      <c r="E441" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F441" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D442" t="s">
+        <v>128</v>
+      </c>
+      <c r="E442" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F442" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D443" t="s">
+        <v>128</v>
+      </c>
+      <c r="E443" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F443" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D444" t="s">
+        <v>128</v>
+      </c>
+      <c r="E444" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F444" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D445" t="s">
+        <v>128</v>
+      </c>
+      <c r="E445" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F445" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D446" t="s">
+        <v>128</v>
+      </c>
+      <c r="E446" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F446" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D447" t="s">
+        <v>128</v>
+      </c>
+      <c r="E447" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F447" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D448" t="s">
+        <v>128</v>
+      </c>
+      <c r="E448" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F448" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D449" t="s">
+        <v>128</v>
+      </c>
+      <c r="E449" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F449" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D450" t="s">
+        <v>128</v>
+      </c>
+      <c r="E450" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F450" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D451" t="s">
+        <v>128</v>
+      </c>
+      <c r="E451" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F451" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D452" t="s">
+        <v>128</v>
+      </c>
+      <c r="E452" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F452" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D453" t="s">
+        <v>128</v>
+      </c>
+      <c r="E453" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F453" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D454" t="s">
+        <v>128</v>
+      </c>
+      <c r="E454" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F454" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D455" t="s">
+        <v>128</v>
+      </c>
+      <c r="E455" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F455" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D456" t="s">
+        <v>128</v>
+      </c>
+      <c r="E456" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F456" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D457" t="s">
+        <v>128</v>
+      </c>
+      <c r="E457" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F457" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D458" t="s">
+        <v>128</v>
+      </c>
+      <c r="E458" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F458" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D459" t="s">
+        <v>128</v>
+      </c>
+      <c r="E459" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F459" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D460" t="s">
+        <v>128</v>
+      </c>
+      <c r="E460" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F460" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D461" t="s">
+        <v>128</v>
+      </c>
+      <c r="E461" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F461" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D462" t="s">
+        <v>128</v>
+      </c>
+      <c r="E462" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F462" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D463" t="s">
+        <v>128</v>
+      </c>
+      <c r="E463" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F463" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D464" t="s">
+        <v>128</v>
+      </c>
+      <c r="E464" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F464" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D465" t="s">
+        <v>128</v>
+      </c>
+      <c r="E465" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F465" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D466" t="s">
+        <v>128</v>
+      </c>
+      <c r="E466" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F466" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D467" t="s">
+        <v>128</v>
+      </c>
+      <c r="E467" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F467" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D468" t="s">
+        <v>128</v>
+      </c>
+      <c r="E468" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F468" s="1">
+        <v>1111</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F373"/>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1388">
   <si>
     <t>Address</t>
   </si>
@@ -3897,6 +3897,300 @@
   </si>
   <si>
     <t>214 Test Ave</t>
+  </si>
+  <si>
+    <t>PAL000019</t>
+  </si>
+  <si>
+    <t>215 Test Ave</t>
+  </si>
+  <si>
+    <t>PAL000049</t>
+  </si>
+  <si>
+    <t>PAL000001</t>
+  </si>
+  <si>
+    <t>PAL000048</t>
+  </si>
+  <si>
+    <t>PAL000002</t>
+  </si>
+  <si>
+    <t>PAL000509</t>
+  </si>
+  <si>
+    <t>PAL000003</t>
+  </si>
+  <si>
+    <t>PAL000502</t>
+  </si>
+  <si>
+    <t>PAL000265</t>
+  </si>
+  <si>
+    <t>PAL000004</t>
+  </si>
+  <si>
+    <t>PAL000266</t>
+  </si>
+  <si>
+    <t>PAL000501</t>
+  </si>
+  <si>
+    <t>PAL000005</t>
+  </si>
+  <si>
+    <t>PAL000007</t>
+  </si>
+  <si>
+    <t>PAL000008</t>
+  </si>
+  <si>
+    <t>PAL000009</t>
+  </si>
+  <si>
+    <t>PAL000047</t>
+  </si>
+  <si>
+    <t>PAL000042</t>
+  </si>
+  <si>
+    <t>PAL000013</t>
+  </si>
+  <si>
+    <t>PAL000015</t>
+  </si>
+  <si>
+    <t>PAL000016</t>
+  </si>
+  <si>
+    <t>PAL000050</t>
+  </si>
+  <si>
+    <t>PAL000017</t>
+  </si>
+  <si>
+    <t>PAL000018</t>
+  </si>
+  <si>
+    <t>PAL000496</t>
+  </si>
+  <si>
+    <t>PAL000021</t>
+  </si>
+  <si>
+    <t>PAL000022</t>
+  </si>
+  <si>
+    <t>PAL000224</t>
+  </si>
+  <si>
+    <t>PAL000499</t>
+  </si>
+  <si>
+    <t>PAL000024</t>
+  </si>
+  <si>
+    <t>PAL000026</t>
+  </si>
+  <si>
+    <t>PAL000031</t>
+  </si>
+  <si>
+    <t>PAL000033</t>
+  </si>
+  <si>
+    <t>PAL000035</t>
+  </si>
+  <si>
+    <t>PAL000481</t>
+  </si>
+  <si>
+    <t>PAL000301</t>
+  </si>
+  <si>
+    <t>PAL000137</t>
+  </si>
+  <si>
+    <t>PAL000479</t>
+  </si>
+  <si>
+    <t>PAL000036</t>
+  </si>
+  <si>
+    <t>PAL000494</t>
+  </si>
+  <si>
+    <t>PAL000039</t>
+  </si>
+  <si>
+    <t>PAL000439</t>
+  </si>
+  <si>
+    <t>PAL000040</t>
+  </si>
+  <si>
+    <t>PAL000041</t>
+  </si>
+  <si>
+    <t>PAL000490</t>
+  </si>
+  <si>
+    <t>PAL000043</t>
+  </si>
+  <si>
+    <t>PAL000440</t>
+  </si>
+  <si>
+    <t>PAL000252</t>
+  </si>
+  <si>
+    <t>216 Test Ave</t>
+  </si>
+  <si>
+    <t>217 Test Ave</t>
+  </si>
+  <si>
+    <t>218 Test Ave</t>
+  </si>
+  <si>
+    <t>219 Test Ave</t>
+  </si>
+  <si>
+    <t>220 Test Ave</t>
+  </si>
+  <si>
+    <t>221 Test Ave</t>
+  </si>
+  <si>
+    <t>222 Test Ave</t>
+  </si>
+  <si>
+    <t>223 Test Ave</t>
+  </si>
+  <si>
+    <t>224 Test Ave</t>
+  </si>
+  <si>
+    <t>225 Test Ave</t>
+  </si>
+  <si>
+    <t>226 Test Ave</t>
+  </si>
+  <si>
+    <t>227 Test Ave</t>
+  </si>
+  <si>
+    <t>228 Test Ave</t>
+  </si>
+  <si>
+    <t>229 Test Ave</t>
+  </si>
+  <si>
+    <t>230 Test Ave</t>
+  </si>
+  <si>
+    <t>231 Test Ave</t>
+  </si>
+  <si>
+    <t>232 Test Ave</t>
+  </si>
+  <si>
+    <t>233 Test Ave</t>
+  </si>
+  <si>
+    <t>234 Test Ave</t>
+  </si>
+  <si>
+    <t>235 Test Ave</t>
+  </si>
+  <si>
+    <t>236 Test Ave</t>
+  </si>
+  <si>
+    <t>237 Test Ave</t>
+  </si>
+  <si>
+    <t>238 Test Ave</t>
+  </si>
+  <si>
+    <t>239 Test Ave</t>
+  </si>
+  <si>
+    <t>240 Test Ave</t>
+  </si>
+  <si>
+    <t>241 Test Ave</t>
+  </si>
+  <si>
+    <t>242 Test Ave</t>
+  </si>
+  <si>
+    <t>243 Test Ave</t>
+  </si>
+  <si>
+    <t>244 Test Ave</t>
+  </si>
+  <si>
+    <t>245 Test Ave</t>
+  </si>
+  <si>
+    <t>246 Test Ave</t>
+  </si>
+  <si>
+    <t>247 Test Ave</t>
+  </si>
+  <si>
+    <t>248 Test Ave</t>
+  </si>
+  <si>
+    <t>249 Test Ave</t>
+  </si>
+  <si>
+    <t>250 Test Ave</t>
+  </si>
+  <si>
+    <t>251 Test Ave</t>
+  </si>
+  <si>
+    <t>252 Test Ave</t>
+  </si>
+  <si>
+    <t>253 Test Ave</t>
+  </si>
+  <si>
+    <t>254 Test Ave</t>
+  </si>
+  <si>
+    <t>255 Test Ave</t>
+  </si>
+  <si>
+    <t>256 Test Ave</t>
+  </si>
+  <si>
+    <t>257 Test Ave</t>
+  </si>
+  <si>
+    <t>258 Test Ave</t>
+  </si>
+  <si>
+    <t>259 Test Ave</t>
+  </si>
+  <si>
+    <t>260 Test Ave</t>
+  </si>
+  <si>
+    <t>261 Test Ave</t>
+  </si>
+  <si>
+    <t>262 Test Ave</t>
+  </si>
+  <si>
+    <t>state_nm_gov_susana_martinez</t>
+  </si>
+  <si>
+    <t>263 Test Ave</t>
   </si>
 </sst>
 </file>
@@ -4221,10 +4515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F468"/>
+  <dimension ref="A1:F517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="B366" sqref="B366"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E515" sqref="E515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13595,6 +13889,986 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D469" t="s">
+        <v>64</v>
+      </c>
+      <c r="E469" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F469" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D470" t="s">
+        <v>64</v>
+      </c>
+      <c r="E470" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F470" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D471" t="s">
+        <v>64</v>
+      </c>
+      <c r="E471" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F471" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D472" t="s">
+        <v>64</v>
+      </c>
+      <c r="E472" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F472" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D473" t="s">
+        <v>64</v>
+      </c>
+      <c r="E473" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F473" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D474" t="s">
+        <v>64</v>
+      </c>
+      <c r="E474" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F474" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D475" t="s">
+        <v>64</v>
+      </c>
+      <c r="E475" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F475" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D476" t="s">
+        <v>64</v>
+      </c>
+      <c r="E476" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F476" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D477" t="s">
+        <v>64</v>
+      </c>
+      <c r="E477" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F477" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D478" t="s">
+        <v>64</v>
+      </c>
+      <c r="E478" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F478" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D479" t="s">
+        <v>64</v>
+      </c>
+      <c r="E479" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F479" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D480" t="s">
+        <v>64</v>
+      </c>
+      <c r="E480" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F480" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D481" t="s">
+        <v>64</v>
+      </c>
+      <c r="E481" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F481" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D482" t="s">
+        <v>64</v>
+      </c>
+      <c r="E482" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F482" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D483" t="s">
+        <v>64</v>
+      </c>
+      <c r="E483" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F483" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D484" t="s">
+        <v>64</v>
+      </c>
+      <c r="E484" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F484" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D485" t="s">
+        <v>64</v>
+      </c>
+      <c r="E485" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F485" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D486" t="s">
+        <v>64</v>
+      </c>
+      <c r="E486" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F486" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D487" t="s">
+        <v>64</v>
+      </c>
+      <c r="E487" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F487" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D488" t="s">
+        <v>64</v>
+      </c>
+      <c r="E488" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F488" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D489" t="s">
+        <v>64</v>
+      </c>
+      <c r="E489" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F489" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D490" t="s">
+        <v>64</v>
+      </c>
+      <c r="E490" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F490" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D491" t="s">
+        <v>64</v>
+      </c>
+      <c r="E491" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F491" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D492" t="s">
+        <v>64</v>
+      </c>
+      <c r="E492" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F492" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D493" t="s">
+        <v>64</v>
+      </c>
+      <c r="E493" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F493" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D494" t="s">
+        <v>64</v>
+      </c>
+      <c r="E494" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F494" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D495" t="s">
+        <v>64</v>
+      </c>
+      <c r="E495" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F495" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D496" t="s">
+        <v>64</v>
+      </c>
+      <c r="E496" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F496" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D497" t="s">
+        <v>64</v>
+      </c>
+      <c r="E497" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F497" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D498" t="s">
+        <v>64</v>
+      </c>
+      <c r="E498" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F498" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D499" t="s">
+        <v>64</v>
+      </c>
+      <c r="E499" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F499" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D500" t="s">
+        <v>64</v>
+      </c>
+      <c r="E500" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F500" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D501" t="s">
+        <v>64</v>
+      </c>
+      <c r="E501" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F501" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D502" t="s">
+        <v>64</v>
+      </c>
+      <c r="E502" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F502" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D503" t="s">
+        <v>64</v>
+      </c>
+      <c r="E503" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F503" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D504" t="s">
+        <v>64</v>
+      </c>
+      <c r="E504" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F504" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D505" t="s">
+        <v>64</v>
+      </c>
+      <c r="E505" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F505" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D506" t="s">
+        <v>64</v>
+      </c>
+      <c r="E506" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F506" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D507" t="s">
+        <v>64</v>
+      </c>
+      <c r="E507" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F507" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D508" t="s">
+        <v>64</v>
+      </c>
+      <c r="E508" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F508" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D509" t="s">
+        <v>64</v>
+      </c>
+      <c r="E509" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F509" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D510" t="s">
+        <v>64</v>
+      </c>
+      <c r="E510" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F510" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D511" t="s">
+        <v>64</v>
+      </c>
+      <c r="E511" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F511" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D512" t="s">
+        <v>64</v>
+      </c>
+      <c r="E512" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F512" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D513" t="s">
+        <v>64</v>
+      </c>
+      <c r="E513" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F513" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D514" t="s">
+        <v>64</v>
+      </c>
+      <c r="E514" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F514" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D515" t="s">
+        <v>64</v>
+      </c>
+      <c r="E515" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F515" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D516" t="s">
+        <v>64</v>
+      </c>
+      <c r="E516" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F516" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D517" t="s">
+        <v>416</v>
+      </c>
+      <c r="E517" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F517" s="1">
+        <v>1111</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1390">
   <si>
     <t>Address</t>
   </si>
@@ -4191,6 +4191,12 @@
   </si>
   <si>
     <t>263 Test Ave</t>
+  </si>
+  <si>
+    <t>state_ar_gov_asa_hutchinson</t>
+  </si>
+  <si>
+    <t>264 Test Ave</t>
   </si>
 </sst>
 </file>
@@ -4515,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F517"/>
+  <dimension ref="A1:F518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E515" sqref="E515"/>
+    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="E517" sqref="E517:F518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14869,6 +14875,26 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D518" t="s">
+        <v>71</v>
+      </c>
+      <c r="E518" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F518" s="1">
+        <v>1111</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1392">
   <si>
     <t>Address</t>
   </si>
@@ -4197,6 +4197,12 @@
   </si>
   <si>
     <t>264 Test Ave</t>
+  </si>
+  <si>
+    <t>state_ny_gov_andrew_cuomo</t>
+  </si>
+  <si>
+    <t>265 Test Ave</t>
   </si>
 </sst>
 </file>
@@ -4521,10 +4527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F518"/>
+  <dimension ref="A1:F519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="E517" sqref="E517:F518"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="F518" sqref="E518:F519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14895,6 +14901,26 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D519" t="s">
+        <v>187</v>
+      </c>
+      <c r="E519" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F519" s="1">
+        <v>1111</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1394">
   <si>
     <t>Address</t>
   </si>
@@ -4203,6 +4203,12 @@
   </si>
   <si>
     <t>265 Test Ave</t>
+  </si>
+  <si>
+    <t>P000603</t>
+  </si>
+  <si>
+    <t>266 Test Ave</t>
   </si>
 </sst>
 </file>
@@ -4527,10 +4533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F519"/>
+  <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="F518" sqref="E518:F519"/>
+      <selection activeCell="G512" sqref="G512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14921,6 +14927,26 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D520" t="s">
+        <v>117</v>
+      </c>
+      <c r="E520" s="2">
+        <v>11111</v>
+      </c>
+      <c r="F520" s="1">
+        <v>1111</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1397">
   <si>
     <t>Address</t>
   </si>
@@ -4209,6 +4209,15 @@
   </si>
   <si>
     <t>266 Test Ave</t>
+  </si>
+  <si>
+    <t>D000600</t>
+  </si>
+  <si>
+    <t>4715 GOLDEN GATE PKWY</t>
+  </si>
+  <si>
+    <t>NAPLES</t>
   </si>
 </sst>
 </file>
@@ -4533,10 +4542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F520"/>
+  <dimension ref="A1:F521"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="G512" sqref="G512"/>
+      <selection activeCell="B521" sqref="B521:F521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14947,6 +14956,26 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D521" t="s">
+        <v>58</v>
+      </c>
+      <c r="E521">
+        <v>34116</v>
+      </c>
+      <c r="F521">
+        <v>6901</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1399">
   <si>
     <t>Address</t>
   </si>
@@ -4218,6 +4218,12 @@
   </si>
   <si>
     <t>NAPLES</t>
+  </si>
+  <si>
+    <t>L000174</t>
+  </si>
+  <si>
+    <t>32 MAIN ST</t>
   </si>
 </sst>
 </file>
@@ -4542,10 +4548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F521"/>
+  <dimension ref="A1:F522"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="B521" sqref="B521:F521"/>
+      <selection activeCell="F523" sqref="F523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,6 +4559,7 @@
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4569,7 +4576,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -14969,11 +14976,31 @@
       <c r="D521" t="s">
         <v>58</v>
       </c>
-      <c r="E521">
+      <c r="E521" s="2">
         <v>34116</v>
       </c>
       <c r="F521">
         <v>6901</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C522" t="s">
+        <v>544</v>
+      </c>
+      <c r="D522" t="s">
+        <v>545</v>
+      </c>
+      <c r="E522" s="2">
+        <v>3561</v>
+      </c>
+      <c r="F522">
+        <v>4072</v>
       </c>
     </row>
   </sheetData>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="1400">
   <si>
     <t>Address</t>
   </si>
@@ -4224,6 +4224,9 @@
   </si>
   <si>
     <t>32 MAIN ST</t>
+  </si>
+  <si>
+    <t>state_ia_gov_terry_branstad</t>
   </si>
 </sst>
 </file>
@@ -4548,10 +4551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F522"/>
+  <dimension ref="A1:F523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="F523" sqref="F523"/>
+      <selection activeCell="C525" sqref="C525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15003,6 +15006,26 @@
         <v>4072</v>
       </c>
     </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B523" t="s">
+        <v>145</v>
+      </c>
+      <c r="C523" t="s">
+        <v>146</v>
+      </c>
+      <c r="D523" t="s">
+        <v>147</v>
+      </c>
+      <c r="E523" s="2">
+        <v>50703</v>
+      </c>
+      <c r="F523">
+        <v>4051</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1403">
   <si>
     <t>Address</t>
   </si>
@@ -4227,6 +4227,15 @@
   </si>
   <si>
     <t>state_ia_gov_terry_branstad</t>
+  </si>
+  <si>
+    <t>S001156</t>
+  </si>
+  <si>
+    <t>11627 TELEGRAPH RD</t>
+  </si>
+  <si>
+    <t>WHITTIER</t>
   </si>
 </sst>
 </file>
@@ -4551,10 +4560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F523"/>
+  <dimension ref="A1:F524"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="C525" sqref="C525"/>
+      <selection activeCell="B524" sqref="B524:F524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15026,6 +15035,26 @@
         <v>4051</v>
       </c>
     </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D524" t="s">
+        <v>24</v>
+      </c>
+      <c r="E524" s="2">
+        <v>90670</v>
+      </c>
+      <c r="F524">
+        <v>6810</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/support_files/two_steps.xlsx
+++ b/support_files/two_steps.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1405">
   <si>
     <t>Address</t>
   </si>
@@ -4236,6 +4236,12 @@
   </si>
   <si>
     <t>WHITTIER</t>
+  </si>
+  <si>
+    <t>state_mt_gov_steve_bullock</t>
+  </si>
+  <si>
+    <t>2603 WHEAT DR</t>
   </si>
 </sst>
 </file>
@@ -4560,10 +4566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F524"/>
+  <dimension ref="A1:F525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="B524" sqref="B524:F524"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="B525" sqref="B525:F525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15055,6 +15061,26 @@
         <v>6810</v>
       </c>
     </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C525" t="s">
+        <v>282</v>
+      </c>
+      <c r="D525" t="s">
+        <v>283</v>
+      </c>
+      <c r="E525" s="2">
+        <v>56750</v>
+      </c>
+      <c r="F525">
+        <v>4800</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
